--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
@@ -1240,451 +1240,379 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>205</v>
-      </c>
-      <c r="B14" t="n">
-        <v>422.52</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>2001.06</v>
-      </c>
-      <c r="D14" t="n">
-        <v>160.0848</v>
-      </c>
-      <c r="E14" t="n">
-        <v>160.0848</v>
-      </c>
-      <c r="F14" t="n">
-        <v>160.0848</v>
-      </c>
-      <c r="G14" t="n">
-        <v>140.0742</v>
-      </c>
-      <c r="H14" t="n">
-        <v>140.0742</v>
-      </c>
-      <c r="I14" t="n">
-        <v>120.0636</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100.053</v>
-      </c>
-      <c r="K14" t="n">
-        <v>100.053</v>
-      </c>
-      <c r="L14" t="n">
-        <v>120.0636</v>
-      </c>
-      <c r="M14" t="n">
-        <v>160.0848</v>
-      </c>
-      <c r="N14" t="n">
-        <v>100.053</v>
-      </c>
-      <c r="O14" t="n">
-        <v>100.053</v>
-      </c>
-      <c r="P14" t="n">
-        <v>120.0636</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>80.04239999999999</v>
-      </c>
-      <c r="R14" t="n">
-        <v>80.04239999999999</v>
-      </c>
-      <c r="S14" t="n">
-        <v>160.0848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
-        <v>252.74</v>
+        <v>422.52</v>
       </c>
       <c r="C15" t="n">
-        <v>1170.42</v>
+        <v>2001.06</v>
       </c>
       <c r="D15" t="n">
-        <v>93.63359999999999</v>
+        <v>160.0848</v>
       </c>
       <c r="E15" t="n">
-        <v>93.63359999999999</v>
+        <v>160.0848</v>
       </c>
       <c r="F15" t="n">
-        <v>93.63359999999999</v>
+        <v>160.0848</v>
       </c>
       <c r="G15" t="n">
-        <v>81.9294</v>
+        <v>140.0742</v>
       </c>
       <c r="H15" t="n">
-        <v>81.9294</v>
+        <v>140.0742</v>
       </c>
       <c r="I15" t="n">
-        <v>70.22519999999999</v>
+        <v>120.0636</v>
       </c>
       <c r="J15" t="n">
-        <v>58.52099999999999</v>
+        <v>100.053</v>
       </c>
       <c r="K15" t="n">
-        <v>58.52099999999999</v>
+        <v>100.053</v>
       </c>
       <c r="L15" t="n">
-        <v>70.22519999999999</v>
+        <v>120.0636</v>
       </c>
       <c r="M15" t="n">
-        <v>93.63359999999999</v>
+        <v>160.0848</v>
       </c>
       <c r="N15" t="n">
-        <v>58.52099999999999</v>
+        <v>100.053</v>
       </c>
       <c r="O15" t="n">
-        <v>58.52099999999999</v>
+        <v>100.053</v>
       </c>
       <c r="P15" t="n">
-        <v>70.22519999999999</v>
+        <v>120.0636</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.81679999999999</v>
+        <v>80.04239999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>46.81679999999999</v>
+        <v>80.04239999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>93.63359999999999</v>
+        <v>160.0848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3607</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>252.74</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1170.42</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>93.63359999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>93.63359999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>93.63359999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.9294</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>81.9294</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>70.22519999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.52099999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>58.52099999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>70.22519999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>93.63359999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>58.52099999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>58.52099999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>70.22519999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.81679999999999</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.81679999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>93.63359999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6504</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+        <v>3607</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1303</v>
-      </c>
-      <c r="B18" t="n">
-        <v>912.61</v>
-      </c>
+        <v>6504</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>4106.74</v>
-      </c>
-      <c r="D18" t="n">
-        <v>369.6065999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>328.5391999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>328.5391999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>328.5391999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>287.4718</v>
-      </c>
-      <c r="I18" t="n">
-        <v>287.4718</v>
-      </c>
-      <c r="J18" t="n">
-        <v>246.4043999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>246.4043999999999</v>
-      </c>
-      <c r="L18" t="n">
-        <v>246.4043999999999</v>
-      </c>
-      <c r="M18" t="n">
-        <v>369.6065999999999</v>
-      </c>
-      <c r="N18" t="n">
-        <v>205.3369999999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>205.3369999999999</v>
-      </c>
-      <c r="P18" t="n">
-        <v>164.2696</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>123.2022</v>
-      </c>
-      <c r="R18" t="n">
-        <v>123.2022</v>
-      </c>
-      <c r="S18" t="n">
-        <v>246.4043999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6503</v>
+        <v>1303</v>
       </c>
       <c r="B19" t="n">
-        <v>1159.67</v>
+        <v>912.61</v>
       </c>
       <c r="C19" t="n">
-        <v>5218.52</v>
+        <v>4106.74</v>
       </c>
       <c r="D19" t="n">
-        <v>465.0166336633663</v>
+        <v>369.6065999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>413.3481188118811</v>
+        <v>328.5391999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>413.3481188118811</v>
+        <v>328.5391999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>413.3481188118811</v>
+        <v>328.5391999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>413.3481188118811</v>
+        <v>287.4718</v>
       </c>
       <c r="I19" t="n">
-        <v>361.679603960396</v>
+        <v>287.4718</v>
       </c>
       <c r="J19" t="n">
-        <v>310.0110891089108</v>
+        <v>246.4043999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>310.0110891089108</v>
+        <v>246.4043999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>310.0110891089108</v>
+        <v>246.4043999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>465.0166336633663</v>
+        <v>369.6065999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>310.0110891089108</v>
+        <v>205.3369999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>258.3425742574257</v>
+        <v>205.3369999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>206.6740594059406</v>
+        <v>164.2696</v>
       </c>
       <c r="Q19" t="n">
-        <v>155.0055445544554</v>
+        <v>123.2022</v>
       </c>
       <c r="R19" t="n">
-        <v>155.0055445544554</v>
+        <v>123.2022</v>
       </c>
       <c r="S19" t="n">
-        <v>258.3425742574257</v>
+        <v>246.4043999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6505</v>
+        <v>6503</v>
       </c>
       <c r="B20" t="n">
-        <v>2251.98</v>
+        <v>1159.67</v>
       </c>
       <c r="C20" t="n">
-        <v>10133.9</v>
+        <v>5218.52</v>
       </c>
       <c r="D20" t="n">
-        <v>903.0207920792077</v>
+        <v>465.0166336633663</v>
       </c>
       <c r="E20" t="n">
-        <v>802.6851485148513</v>
+        <v>413.3481188118811</v>
       </c>
       <c r="F20" t="n">
-        <v>802.6851485148513</v>
+        <v>413.3481188118811</v>
       </c>
       <c r="G20" t="n">
-        <v>802.6851485148513</v>
+        <v>413.3481188118811</v>
       </c>
       <c r="H20" t="n">
-        <v>802.6851485148513</v>
+        <v>413.3481188118811</v>
       </c>
       <c r="I20" t="n">
-        <v>702.349504950495</v>
+        <v>361.679603960396</v>
       </c>
       <c r="J20" t="n">
-        <v>602.0138613861384</v>
+        <v>310.0110891089108</v>
       </c>
       <c r="K20" t="n">
-        <v>602.0138613861384</v>
+        <v>310.0110891089108</v>
       </c>
       <c r="L20" t="n">
-        <v>602.0138613861384</v>
+        <v>310.0110891089108</v>
       </c>
       <c r="M20" t="n">
-        <v>903.0207920792077</v>
+        <v>465.0166336633663</v>
       </c>
       <c r="N20" t="n">
-        <v>602.0138613861384</v>
+        <v>310.0110891089108</v>
       </c>
       <c r="O20" t="n">
-        <v>501.678217821782</v>
+        <v>258.3425742574257</v>
       </c>
       <c r="P20" t="n">
-        <v>401.3425742574257</v>
+        <v>206.6740594059406</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.0069306930692</v>
+        <v>155.0055445544554</v>
       </c>
       <c r="R20" t="n">
-        <v>301.0069306930692</v>
+        <v>155.0055445544554</v>
       </c>
       <c r="S20" t="n">
-        <v>501.678217821782</v>
+        <v>258.3425742574257</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6701</v>
+        <v>6505</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2251.98</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+        <v>10133.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>903.0207920792077</v>
+      </c>
+      <c r="E21" t="n">
+        <v>802.6851485148513</v>
+      </c>
+      <c r="F21" t="n">
+        <v>802.6851485148513</v>
+      </c>
+      <c r="G21" t="n">
+        <v>802.6851485148513</v>
+      </c>
+      <c r="H21" t="n">
+        <v>802.6851485148513</v>
+      </c>
+      <c r="I21" t="n">
+        <v>702.349504950495</v>
+      </c>
+      <c r="J21" t="n">
+        <v>602.0138613861384</v>
+      </c>
+      <c r="K21" t="n">
+        <v>602.0138613861384</v>
+      </c>
+      <c r="L21" t="n">
+        <v>602.0138613861384</v>
+      </c>
+      <c r="M21" t="n">
+        <v>903.0207920792077</v>
+      </c>
+      <c r="N21" t="n">
+        <v>602.0138613861384</v>
+      </c>
+      <c r="O21" t="n">
+        <v>501.678217821782</v>
+      </c>
+      <c r="P21" t="n">
+        <v>401.3425742574257</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>301.0069306930692</v>
+      </c>
+      <c r="R21" t="n">
+        <v>301.0069306930692</v>
+      </c>
+      <c r="S21" t="n">
+        <v>501.678217821782</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6703</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+        <v>6701</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
@@ -1707,11 +1635,9 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6702</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
+        <v>6703</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
@@ -1734,2543 +1660,2401 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6610</v>
-      </c>
-      <c r="B24" t="n">
-        <v>241.77</v>
-      </c>
+        <v>6702</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>996.4999999999998</v>
-      </c>
-      <c r="D24" t="n">
-        <v>88.79702970297028</v>
-      </c>
-      <c r="E24" t="n">
-        <v>88.79702970297028</v>
-      </c>
-      <c r="F24" t="n">
-        <v>78.93069306930691</v>
-      </c>
-      <c r="G24" t="n">
-        <v>78.93069306930691</v>
-      </c>
-      <c r="H24" t="n">
-        <v>78.93069306930691</v>
-      </c>
-      <c r="I24" t="n">
-        <v>69.06435643564356</v>
-      </c>
-      <c r="J24" t="n">
-        <v>59.19801980198018</v>
-      </c>
-      <c r="K24" t="n">
-        <v>59.19801980198018</v>
-      </c>
-      <c r="L24" t="n">
-        <v>59.19801980198018</v>
-      </c>
-      <c r="M24" t="n">
-        <v>88.79702970297028</v>
-      </c>
-      <c r="N24" t="n">
-        <v>49.33168316831682</v>
-      </c>
-      <c r="O24" t="n">
-        <v>49.33168316831682</v>
-      </c>
-      <c r="P24" t="n">
-        <v>39.46534653465346</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>29.59900990099009</v>
-      </c>
-      <c r="R24" t="n">
-        <v>29.59900990099009</v>
-      </c>
-      <c r="S24" t="n">
-        <v>49.33168316831682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6602</v>
+        <v>6610</v>
       </c>
       <c r="B25" t="n">
-        <v>772.46</v>
+        <v>241.77</v>
       </c>
       <c r="C25" t="n">
-        <v>3237.75</v>
+        <v>996.4999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>288.5123762376237</v>
+        <v>88.79702970297028</v>
       </c>
       <c r="E25" t="n">
-        <v>288.5123762376237</v>
+        <v>88.79702970297028</v>
       </c>
       <c r="F25" t="n">
-        <v>256.4554455445544</v>
+        <v>78.93069306930691</v>
       </c>
       <c r="G25" t="n">
-        <v>256.4554455445544</v>
+        <v>78.93069306930691</v>
       </c>
       <c r="H25" t="n">
-        <v>256.4554455445544</v>
+        <v>78.93069306930691</v>
       </c>
       <c r="I25" t="n">
-        <v>224.3985148514851</v>
+        <v>69.06435643564356</v>
       </c>
       <c r="J25" t="n">
-        <v>192.3415841584158</v>
+        <v>59.19801980198018</v>
       </c>
       <c r="K25" t="n">
-        <v>192.3415841584158</v>
+        <v>59.19801980198018</v>
       </c>
       <c r="L25" t="n">
-        <v>192.3415841584158</v>
+        <v>59.19801980198018</v>
       </c>
       <c r="M25" t="n">
-        <v>288.5123762376237</v>
+        <v>88.79702970297028</v>
       </c>
       <c r="N25" t="n">
-        <v>160.2846534653465</v>
+        <v>49.33168316831682</v>
       </c>
       <c r="O25" t="n">
-        <v>160.2846534653465</v>
+        <v>49.33168316831682</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2277227722772</v>
+        <v>39.46534653465346</v>
       </c>
       <c r="Q25" t="n">
-        <v>96.1707920792079</v>
+        <v>29.59900990099009</v>
       </c>
       <c r="R25" t="n">
-        <v>96.1707920792079</v>
+        <v>29.59900990099009</v>
       </c>
       <c r="S25" t="n">
-        <v>160.2846534653465</v>
+        <v>49.33168316831682</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B26" t="n">
-        <v>884.54</v>
+        <v>772.46</v>
       </c>
       <c r="C26" t="n">
-        <v>3699.709999999999</v>
+        <v>3237.75</v>
       </c>
       <c r="D26" t="n">
-        <v>329.6771287128713</v>
+        <v>288.5123762376237</v>
       </c>
       <c r="E26" t="n">
-        <v>329.6771287128713</v>
+        <v>288.5123762376237</v>
       </c>
       <c r="F26" t="n">
-        <v>293.0463366336633</v>
+        <v>256.4554455445544</v>
       </c>
       <c r="G26" t="n">
-        <v>293.0463366336633</v>
+        <v>256.4554455445544</v>
       </c>
       <c r="H26" t="n">
-        <v>293.0463366336633</v>
+        <v>256.4554455445544</v>
       </c>
       <c r="I26" t="n">
-        <v>256.4155445544554</v>
+        <v>224.3985148514851</v>
       </c>
       <c r="J26" t="n">
-        <v>219.7847524752475</v>
+        <v>192.3415841584158</v>
       </c>
       <c r="K26" t="n">
-        <v>219.7847524752475</v>
+        <v>192.3415841584158</v>
       </c>
       <c r="L26" t="n">
-        <v>219.7847524752475</v>
+        <v>192.3415841584158</v>
       </c>
       <c r="M26" t="n">
-        <v>329.6771287128713</v>
+        <v>288.5123762376237</v>
       </c>
       <c r="N26" t="n">
-        <v>183.1539603960396</v>
+        <v>160.2846534653465</v>
       </c>
       <c r="O26" t="n">
-        <v>183.1539603960396</v>
+        <v>160.2846534653465</v>
       </c>
       <c r="P26" t="n">
-        <v>146.5231683168317</v>
+        <v>128.2277227722772</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.8923762376237</v>
+        <v>96.1707920792079</v>
       </c>
       <c r="R26" t="n">
-        <v>109.8923762376237</v>
+        <v>96.1707920792079</v>
       </c>
       <c r="S26" t="n">
-        <v>183.1539603960396</v>
+        <v>160.2846534653465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B27" t="n">
-        <v>352.32</v>
+        <v>884.54</v>
       </c>
       <c r="C27" t="n">
-        <v>1465.64</v>
+        <v>3699.709999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>130.6015841584158</v>
+        <v>329.6771287128713</v>
       </c>
       <c r="E27" t="n">
-        <v>130.6015841584158</v>
+        <v>329.6771287128713</v>
       </c>
       <c r="F27" t="n">
-        <v>116.090297029703</v>
+        <v>293.0463366336633</v>
       </c>
       <c r="G27" t="n">
-        <v>116.090297029703</v>
+        <v>293.0463366336633</v>
       </c>
       <c r="H27" t="n">
-        <v>116.090297029703</v>
+        <v>293.0463366336633</v>
       </c>
       <c r="I27" t="n">
-        <v>101.5790099009901</v>
+        <v>256.4155445544554</v>
       </c>
       <c r="J27" t="n">
-        <v>87.06772277227721</v>
+        <v>219.7847524752475</v>
       </c>
       <c r="K27" t="n">
-        <v>87.06772277227721</v>
+        <v>219.7847524752475</v>
       </c>
       <c r="L27" t="n">
-        <v>87.06772277227721</v>
+        <v>219.7847524752475</v>
       </c>
       <c r="M27" t="n">
-        <v>130.6015841584158</v>
+        <v>329.6771287128713</v>
       </c>
       <c r="N27" t="n">
-        <v>72.55643564356434</v>
+        <v>183.1539603960396</v>
       </c>
       <c r="O27" t="n">
-        <v>72.55643564356434</v>
+        <v>183.1539603960396</v>
       </c>
       <c r="P27" t="n">
-        <v>58.04514851485148</v>
+        <v>146.5231683168317</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.5338613861386</v>
+        <v>109.8923762376237</v>
       </c>
       <c r="R27" t="n">
-        <v>43.5338613861386</v>
+        <v>109.8923762376237</v>
       </c>
       <c r="S27" t="n">
-        <v>72.55643564356434</v>
+        <v>183.1539603960396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B28" t="n">
-        <v>487.14</v>
+        <v>352.32</v>
       </c>
       <c r="C28" t="n">
-        <v>2115.719999999999</v>
+        <v>1465.64</v>
       </c>
       <c r="D28" t="n">
-        <v>188.529504950495</v>
+        <v>130.6015841584158</v>
       </c>
       <c r="E28" t="n">
-        <v>188.529504950495</v>
+        <v>130.6015841584158</v>
       </c>
       <c r="F28" t="n">
-        <v>167.5817821782178</v>
+        <v>116.090297029703</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5817821782178</v>
+        <v>116.090297029703</v>
       </c>
       <c r="H28" t="n">
-        <v>167.5817821782178</v>
+        <v>116.090297029703</v>
       </c>
       <c r="I28" t="n">
-        <v>146.6340594059406</v>
+        <v>101.5790099009901</v>
       </c>
       <c r="J28" t="n">
-        <v>125.6863366336633</v>
+        <v>87.06772277227721</v>
       </c>
       <c r="K28" t="n">
-        <v>125.6863366336633</v>
+        <v>87.06772277227721</v>
       </c>
       <c r="L28" t="n">
-        <v>125.6863366336633</v>
+        <v>87.06772277227721</v>
       </c>
       <c r="M28" t="n">
-        <v>188.529504950495</v>
+        <v>130.6015841584158</v>
       </c>
       <c r="N28" t="n">
-        <v>104.7386138613861</v>
+        <v>72.55643564356434</v>
       </c>
       <c r="O28" t="n">
-        <v>104.7386138613861</v>
+        <v>72.55643564356434</v>
       </c>
       <c r="P28" t="n">
-        <v>83.79089108910888</v>
+        <v>58.04514851485148</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.84316831683166</v>
+        <v>43.5338613861386</v>
       </c>
       <c r="R28" t="n">
-        <v>62.84316831683166</v>
+        <v>43.5338613861386</v>
       </c>
       <c r="S28" t="n">
-        <v>104.7386138613861</v>
+        <v>72.55643564356434</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B29" t="n">
-        <v>1744.18</v>
+        <v>487.14</v>
       </c>
       <c r="C29" t="n">
-        <v>7404.689999999999</v>
+        <v>2115.719999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>659.8238613861384</v>
+        <v>188.529504950495</v>
       </c>
       <c r="E29" t="n">
-        <v>659.8238613861384</v>
+        <v>188.529504950495</v>
       </c>
       <c r="F29" t="n">
-        <v>586.5100990099008</v>
+        <v>167.5817821782178</v>
       </c>
       <c r="G29" t="n">
-        <v>586.5100990099008</v>
+        <v>167.5817821782178</v>
       </c>
       <c r="H29" t="n">
-        <v>586.5100990099008</v>
+        <v>167.5817821782178</v>
       </c>
       <c r="I29" t="n">
-        <v>513.1963366336632</v>
+        <v>146.6340594059406</v>
       </c>
       <c r="J29" t="n">
-        <v>439.8825742574256</v>
+        <v>125.6863366336633</v>
       </c>
       <c r="K29" t="n">
-        <v>439.8825742574256</v>
+        <v>125.6863366336633</v>
       </c>
       <c r="L29" t="n">
-        <v>439.8825742574256</v>
+        <v>125.6863366336633</v>
       </c>
       <c r="M29" t="n">
-        <v>659.8238613861384</v>
+        <v>188.529504950495</v>
       </c>
       <c r="N29" t="n">
-        <v>366.568811881188</v>
+        <v>104.7386138613861</v>
       </c>
       <c r="O29" t="n">
-        <v>366.568811881188</v>
+        <v>104.7386138613861</v>
       </c>
       <c r="P29" t="n">
-        <v>293.2550495049504</v>
+        <v>83.79089108910888</v>
       </c>
       <c r="Q29" t="n">
-        <v>219.9412871287128</v>
+        <v>62.84316831683166</v>
       </c>
       <c r="R29" t="n">
-        <v>219.9412871287128</v>
+        <v>62.84316831683166</v>
       </c>
       <c r="S29" t="n">
-        <v>366.568811881188</v>
+        <v>104.7386138613861</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6507</v>
+        <v>6606</v>
       </c>
       <c r="B30" t="n">
-        <v>1556.76</v>
+        <v>1744.18</v>
       </c>
       <c r="C30" t="n">
-        <v>6686.129999999999</v>
+        <v>7404.689999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>595.7937623762375</v>
+        <v>659.8238613861384</v>
       </c>
       <c r="E30" t="n">
-        <v>595.7937623762375</v>
+        <v>659.8238613861384</v>
       </c>
       <c r="F30" t="n">
-        <v>529.5944554455444</v>
+        <v>586.5100990099008</v>
       </c>
       <c r="G30" t="n">
-        <v>529.5944554455444</v>
+        <v>586.5100990099008</v>
       </c>
       <c r="H30" t="n">
-        <v>529.5944554455444</v>
+        <v>586.5100990099008</v>
       </c>
       <c r="I30" t="n">
-        <v>463.3951485148514</v>
+        <v>513.1963366336632</v>
       </c>
       <c r="J30" t="n">
-        <v>397.1958415841583</v>
+        <v>439.8825742574256</v>
       </c>
       <c r="K30" t="n">
-        <v>397.1958415841583</v>
+        <v>439.8825742574256</v>
       </c>
       <c r="L30" t="n">
-        <v>397.1958415841583</v>
+        <v>439.8825742574256</v>
       </c>
       <c r="M30" t="n">
-        <v>595.7937623762375</v>
+        <v>659.8238613861384</v>
       </c>
       <c r="N30" t="n">
-        <v>330.9965346534653</v>
+        <v>366.568811881188</v>
       </c>
       <c r="O30" t="n">
-        <v>330.9965346534653</v>
+        <v>366.568811881188</v>
       </c>
       <c r="P30" t="n">
-        <v>264.7972277227722</v>
+        <v>293.2550495049504</v>
       </c>
       <c r="Q30" t="n">
-        <v>198.5979207920792</v>
+        <v>219.9412871287128</v>
       </c>
       <c r="R30" t="n">
-        <v>198.5979207920792</v>
+        <v>219.9412871287128</v>
       </c>
       <c r="S30" t="n">
-        <v>330.9965346534653</v>
+        <v>366.568811881188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B31" t="n">
-        <v>1914.4</v>
+        <v>1556.76</v>
       </c>
       <c r="C31" t="n">
-        <v>8160.199999999999</v>
+        <v>6686.129999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>727.1465346534652</v>
+        <v>595.7937623762375</v>
       </c>
       <c r="E31" t="n">
-        <v>727.1465346534652</v>
+        <v>595.7937623762375</v>
       </c>
       <c r="F31" t="n">
-        <v>646.3524752475246</v>
+        <v>529.5944554455444</v>
       </c>
       <c r="G31" t="n">
-        <v>646.3524752475246</v>
+        <v>529.5944554455444</v>
       </c>
       <c r="H31" t="n">
-        <v>646.3524752475246</v>
+        <v>529.5944554455444</v>
       </c>
       <c r="I31" t="n">
-        <v>565.5584158415841</v>
+        <v>463.3951485148514</v>
       </c>
       <c r="J31" t="n">
-        <v>484.7643564356434</v>
+        <v>397.1958415841583</v>
       </c>
       <c r="K31" t="n">
-        <v>484.7643564356434</v>
+        <v>397.1958415841583</v>
       </c>
       <c r="L31" t="n">
-        <v>484.7643564356434</v>
+        <v>397.1958415841583</v>
       </c>
       <c r="M31" t="n">
-        <v>727.1465346534652</v>
+        <v>595.7937623762375</v>
       </c>
       <c r="N31" t="n">
-        <v>403.9702970297029</v>
+        <v>330.9965346534653</v>
       </c>
       <c r="O31" t="n">
-        <v>403.9702970297029</v>
+        <v>330.9965346534653</v>
       </c>
       <c r="P31" t="n">
-        <v>323.1762376237623</v>
+        <v>264.7972277227722</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.3821782178217</v>
+        <v>198.5979207920792</v>
       </c>
       <c r="R31" t="n">
-        <v>242.3821782178217</v>
+        <v>198.5979207920792</v>
       </c>
       <c r="S31" t="n">
-        <v>403.9702970297029</v>
+        <v>330.9965346534653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6510</v>
+        <v>6508</v>
       </c>
       <c r="B32" t="n">
-        <v>715.87</v>
+        <v>1914.4</v>
       </c>
       <c r="C32" t="n">
-        <v>3085.42</v>
+        <v>8160.199999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>274.9384158415841</v>
+        <v>727.1465346534652</v>
       </c>
       <c r="E32" t="n">
-        <v>274.9384158415841</v>
+        <v>727.1465346534652</v>
       </c>
       <c r="F32" t="n">
-        <v>244.389702970297</v>
+        <v>646.3524752475246</v>
       </c>
       <c r="G32" t="n">
-        <v>244.389702970297</v>
+        <v>646.3524752475246</v>
       </c>
       <c r="H32" t="n">
-        <v>244.389702970297</v>
+        <v>646.3524752475246</v>
       </c>
       <c r="I32" t="n">
-        <v>213.8409900990099</v>
+        <v>565.5584158415841</v>
       </c>
       <c r="J32" t="n">
-        <v>183.2922772277227</v>
+        <v>484.7643564356434</v>
       </c>
       <c r="K32" t="n">
-        <v>183.2922772277227</v>
+        <v>484.7643564356434</v>
       </c>
       <c r="L32" t="n">
-        <v>183.2922772277227</v>
+        <v>484.7643564356434</v>
       </c>
       <c r="M32" t="n">
-        <v>274.9384158415841</v>
+        <v>727.1465346534652</v>
       </c>
       <c r="N32" t="n">
-        <v>152.7435643564356</v>
+        <v>403.9702970297029</v>
       </c>
       <c r="O32" t="n">
-        <v>152.7435643564356</v>
+        <v>403.9702970297029</v>
       </c>
       <c r="P32" t="n">
-        <v>122.1948514851485</v>
+        <v>323.1762376237623</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.64613861386137</v>
+        <v>242.3821782178217</v>
       </c>
       <c r="R32" t="n">
-        <v>91.64613861386137</v>
+        <v>242.3821782178217</v>
       </c>
       <c r="S32" t="n">
-        <v>152.7435643564356</v>
+        <v>403.9702970297029</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6509</v>
+        <v>6510</v>
       </c>
       <c r="B33" t="n">
-        <v>1340.89</v>
+        <v>715.87</v>
       </c>
       <c r="C33" t="n">
-        <v>5688.519999999999</v>
+        <v>3085.42</v>
       </c>
       <c r="D33" t="n">
-        <v>506.8978217821781</v>
+        <v>274.9384158415841</v>
       </c>
       <c r="E33" t="n">
-        <v>506.8978217821781</v>
+        <v>274.9384158415841</v>
       </c>
       <c r="F33" t="n">
-        <v>450.5758415841584</v>
+        <v>244.389702970297</v>
       </c>
       <c r="G33" t="n">
-        <v>450.5758415841584</v>
+        <v>244.389702970297</v>
       </c>
       <c r="H33" t="n">
-        <v>450.5758415841584</v>
+        <v>244.389702970297</v>
       </c>
       <c r="I33" t="n">
-        <v>394.2538613861386</v>
+        <v>213.8409900990099</v>
       </c>
       <c r="J33" t="n">
-        <v>337.9318811881187</v>
+        <v>183.2922772277227</v>
       </c>
       <c r="K33" t="n">
-        <v>337.9318811881187</v>
+        <v>183.2922772277227</v>
       </c>
       <c r="L33" t="n">
-        <v>337.9318811881187</v>
+        <v>183.2922772277227</v>
       </c>
       <c r="M33" t="n">
-        <v>506.8978217821781</v>
+        <v>274.9384158415841</v>
       </c>
       <c r="N33" t="n">
-        <v>281.609900990099</v>
+        <v>152.7435643564356</v>
       </c>
       <c r="O33" t="n">
-        <v>281.609900990099</v>
+        <v>152.7435643564356</v>
       </c>
       <c r="P33" t="n">
-        <v>225.2879207920792</v>
+        <v>122.1948514851485</v>
       </c>
       <c r="Q33" t="n">
-        <v>168.9659405940594</v>
+        <v>91.64613861386137</v>
       </c>
       <c r="R33" t="n">
-        <v>168.9659405940594</v>
+        <v>91.64613861386137</v>
       </c>
       <c r="S33" t="n">
-        <v>281.609900990099</v>
+        <v>152.7435643564356</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6403</v>
+        <v>6509</v>
       </c>
       <c r="B34" t="n">
-        <v>2166.96</v>
+        <v>1340.89</v>
       </c>
       <c r="C34" t="n">
-        <v>9751.309999999998</v>
+        <v>5688.519999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>868.9286138613859</v>
+        <v>506.8978217821781</v>
       </c>
       <c r="E34" t="n">
-        <v>772.3809900990098</v>
+        <v>506.8978217821781</v>
       </c>
       <c r="F34" t="n">
-        <v>772.3809900990098</v>
+        <v>450.5758415841584</v>
       </c>
       <c r="G34" t="n">
-        <v>772.3809900990098</v>
+        <v>450.5758415841584</v>
       </c>
       <c r="H34" t="n">
-        <v>772.3809900990098</v>
+        <v>450.5758415841584</v>
       </c>
       <c r="I34" t="n">
-        <v>675.8333663366335</v>
+        <v>394.2538613861386</v>
       </c>
       <c r="J34" t="n">
-        <v>579.2857425742573</v>
+        <v>337.9318811881187</v>
       </c>
       <c r="K34" t="n">
-        <v>579.2857425742573</v>
+        <v>337.9318811881187</v>
       </c>
       <c r="L34" t="n">
-        <v>579.2857425742573</v>
+        <v>337.9318811881187</v>
       </c>
       <c r="M34" t="n">
-        <v>868.9286138613859</v>
+        <v>506.8978217821781</v>
       </c>
       <c r="N34" t="n">
-        <v>579.2857425742573</v>
+        <v>281.609900990099</v>
       </c>
       <c r="O34" t="n">
-        <v>482.7381188118811</v>
+        <v>281.609900990099</v>
       </c>
       <c r="P34" t="n">
-        <v>386.1904950495049</v>
+        <v>225.2879207920792</v>
       </c>
       <c r="Q34" t="n">
-        <v>289.6428712871286</v>
+        <v>168.9659405940594</v>
       </c>
       <c r="R34" t="n">
-        <v>289.6428712871286</v>
+        <v>168.9659405940594</v>
       </c>
       <c r="S34" t="n">
-        <v>482.7381188118811</v>
+        <v>281.609900990099</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6511</v>
+        <v>6403</v>
       </c>
       <c r="B35" t="n">
-        <v>414.86</v>
+        <v>2166.96</v>
       </c>
       <c r="C35" t="n">
-        <v>1866.89</v>
+        <v>9751.309999999998</v>
       </c>
       <c r="D35" t="n">
-        <v>166.3565346534653</v>
+        <v>868.9286138613859</v>
       </c>
       <c r="E35" t="n">
-        <v>147.8724752475247</v>
+        <v>772.3809900990098</v>
       </c>
       <c r="F35" t="n">
-        <v>147.8724752475247</v>
+        <v>772.3809900990098</v>
       </c>
       <c r="G35" t="n">
-        <v>147.8724752475247</v>
+        <v>772.3809900990098</v>
       </c>
       <c r="H35" t="n">
-        <v>147.8724752475247</v>
+        <v>772.3809900990098</v>
       </c>
       <c r="I35" t="n">
-        <v>129.3884158415842</v>
+        <v>675.8333663366335</v>
       </c>
       <c r="J35" t="n">
-        <v>110.9043564356435</v>
+        <v>579.2857425742573</v>
       </c>
       <c r="K35" t="n">
-        <v>110.9043564356435</v>
+        <v>579.2857425742573</v>
       </c>
       <c r="L35" t="n">
-        <v>110.9043564356435</v>
+        <v>579.2857425742573</v>
       </c>
       <c r="M35" t="n">
-        <v>166.3565346534653</v>
+        <v>868.9286138613859</v>
       </c>
       <c r="N35" t="n">
-        <v>110.9043564356435</v>
+        <v>579.2857425742573</v>
       </c>
       <c r="O35" t="n">
-        <v>92.42029702970295</v>
+        <v>482.7381188118811</v>
       </c>
       <c r="P35" t="n">
-        <v>73.93623762376237</v>
+        <v>386.1904950495049</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.45217821782177</v>
+        <v>289.6428712871286</v>
       </c>
       <c r="R35" t="n">
-        <v>55.45217821782177</v>
+        <v>289.6428712871286</v>
       </c>
       <c r="S35" t="n">
-        <v>92.42029702970295</v>
+        <v>482.7381188118811</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1207</v>
+        <v>6511</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>414.86</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+        <v>1866.89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>166.3565346534653</v>
+      </c>
+      <c r="E36" t="n">
+        <v>147.8724752475247</v>
+      </c>
+      <c r="F36" t="n">
+        <v>147.8724752475247</v>
+      </c>
+      <c r="G36" t="n">
+        <v>147.8724752475247</v>
+      </c>
+      <c r="H36" t="n">
+        <v>147.8724752475247</v>
+      </c>
+      <c r="I36" t="n">
+        <v>129.3884158415842</v>
+      </c>
+      <c r="J36" t="n">
+        <v>110.9043564356435</v>
+      </c>
+      <c r="K36" t="n">
+        <v>110.9043564356435</v>
+      </c>
+      <c r="L36" t="n">
+        <v>110.9043564356435</v>
+      </c>
+      <c r="M36" t="n">
+        <v>166.3565346534653</v>
+      </c>
+      <c r="N36" t="n">
+        <v>110.9043564356435</v>
+      </c>
+      <c r="O36" t="n">
+        <v>92.42029702970295</v>
+      </c>
+      <c r="P36" t="n">
+        <v>73.93623762376237</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>55.45217821782177</v>
+      </c>
+      <c r="R36" t="n">
+        <v>55.45217821782177</v>
+      </c>
+      <c r="S36" t="n">
+        <v>92.42029702970295</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B37" t="n">
-        <v>29.16</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>131.22</v>
-      </c>
-      <c r="D37" t="n">
-        <v>11.8098</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10.4976</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10.4976</v>
-      </c>
-      <c r="G37" t="n">
-        <v>10.4976</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9.1854</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9.1854</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7.873199999999998</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7.873199999999998</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.873199999999998</v>
-      </c>
-      <c r="M37" t="n">
-        <v>11.8098</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.560999999999998</v>
-      </c>
-      <c r="O37" t="n">
-        <v>6.560999999999998</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.248799999999999</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3.936599999999999</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3.936599999999999</v>
-      </c>
-      <c r="S37" t="n">
-        <v>7.873199999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1043.34</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>4695.039999999999</v>
-      </c>
-      <c r="D38" t="n">
-        <v>422.5535999999999</v>
-      </c>
-      <c r="E38" t="n">
-        <v>375.6032</v>
-      </c>
-      <c r="F38" t="n">
-        <v>375.6032</v>
-      </c>
-      <c r="G38" t="n">
-        <v>375.6032</v>
-      </c>
-      <c r="H38" t="n">
-        <v>328.6528</v>
-      </c>
-      <c r="I38" t="n">
-        <v>328.6528</v>
-      </c>
-      <c r="J38" t="n">
-        <v>281.7023999999999</v>
-      </c>
-      <c r="K38" t="n">
-        <v>281.7023999999999</v>
-      </c>
-      <c r="L38" t="n">
-        <v>281.7023999999999</v>
-      </c>
-      <c r="M38" t="n">
-        <v>422.5535999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>234.752</v>
-      </c>
-      <c r="O38" t="n">
-        <v>234.752</v>
-      </c>
-      <c r="P38" t="n">
-        <v>187.8016</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>140.8511999999999</v>
-      </c>
-      <c r="R38" t="n">
-        <v>140.8511999999999</v>
-      </c>
-      <c r="S38" t="n">
-        <v>281.7023999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B39" t="n">
-        <v>929.62</v>
+        <v>1043.34</v>
       </c>
       <c r="C39" t="n">
-        <v>4183.279999999999</v>
+        <v>4695.039999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>376.4951999999999</v>
+        <v>422.5535999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>334.6623999999999</v>
+        <v>375.6032</v>
       </c>
       <c r="F39" t="n">
-        <v>334.6623999999999</v>
+        <v>375.6032</v>
       </c>
       <c r="G39" t="n">
-        <v>334.6623999999999</v>
+        <v>375.6032</v>
       </c>
       <c r="H39" t="n">
-        <v>292.8296</v>
+        <v>328.6528</v>
       </c>
       <c r="I39" t="n">
-        <v>292.8296</v>
+        <v>328.6528</v>
       </c>
       <c r="J39" t="n">
-        <v>250.9967999999999</v>
+        <v>281.7023999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>250.9967999999999</v>
+        <v>281.7023999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>250.9967999999999</v>
+        <v>281.7023999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>376.4951999999999</v>
+        <v>422.5535999999999</v>
       </c>
       <c r="N39" t="n">
-        <v>209.1639999999999</v>
+        <v>234.752</v>
       </c>
       <c r="O39" t="n">
-        <v>209.1639999999999</v>
+        <v>234.752</v>
       </c>
       <c r="P39" t="n">
-        <v>167.3312</v>
+        <v>187.8016</v>
       </c>
       <c r="Q39" t="n">
-        <v>125.4984</v>
+        <v>140.8511999999999</v>
       </c>
       <c r="R39" t="n">
-        <v>125.4984</v>
+        <v>140.8511999999999</v>
       </c>
       <c r="S39" t="n">
-        <v>250.9967999999999</v>
+        <v>281.7023999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>208</v>
+        <v>1302</v>
       </c>
       <c r="B40" t="n">
-        <v>144.94</v>
+        <v>929.62</v>
       </c>
       <c r="C40" t="n">
-        <v>676.04</v>
+        <v>4183.279999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>54.08319999999999</v>
+        <v>376.4951999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>54.08319999999999</v>
+        <v>334.6623999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>54.08319999999999</v>
+        <v>334.6623999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>47.32279999999999</v>
+        <v>334.6623999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>47.32279999999999</v>
+        <v>292.8296</v>
       </c>
       <c r="I40" t="n">
-        <v>40.56239999999999</v>
+        <v>292.8296</v>
       </c>
       <c r="J40" t="n">
-        <v>33.80199999999999</v>
+        <v>250.9967999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>33.80199999999999</v>
+        <v>250.9967999999999</v>
       </c>
       <c r="L40" t="n">
-        <v>40.56239999999999</v>
+        <v>250.9967999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>54.08319999999999</v>
+        <v>376.4951999999999</v>
       </c>
       <c r="N40" t="n">
-        <v>33.80199999999999</v>
+        <v>209.1639999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>33.80199999999999</v>
+        <v>209.1639999999999</v>
       </c>
       <c r="P40" t="n">
-        <v>40.56239999999999</v>
+        <v>167.3312</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.0416</v>
+        <v>125.4984</v>
       </c>
       <c r="R40" t="n">
-        <v>27.0416</v>
+        <v>125.4984</v>
       </c>
       <c r="S40" t="n">
-        <v>54.08319999999999</v>
+        <v>250.9967999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="n">
-        <v>247.77</v>
+        <v>144.94</v>
       </c>
       <c r="C41" t="n">
-        <v>1146.08</v>
+        <v>676.04</v>
       </c>
       <c r="D41" t="n">
-        <v>91.68639999999998</v>
+        <v>54.08319999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>91.68639999999998</v>
+        <v>54.08319999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>91.68639999999998</v>
+        <v>54.08319999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>80.22559999999999</v>
+        <v>47.32279999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>80.22559999999999</v>
+        <v>47.32279999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>68.76479999999998</v>
+        <v>40.56239999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>57.30399999999998</v>
+        <v>33.80199999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>57.30399999999998</v>
+        <v>33.80199999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>68.76479999999998</v>
+        <v>40.56239999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>91.68639999999998</v>
+        <v>54.08319999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>57.30399999999998</v>
+        <v>33.80199999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>57.30399999999998</v>
+        <v>33.80199999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>68.76479999999998</v>
+        <v>40.56239999999999</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.84319999999999</v>
+        <v>27.0416</v>
       </c>
       <c r="R41" t="n">
-        <v>45.84319999999999</v>
+        <v>27.0416</v>
       </c>
       <c r="S41" t="n">
-        <v>91.68639999999998</v>
+        <v>54.08319999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2401</v>
+        <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>2324.22</v>
+        <v>247.77</v>
       </c>
       <c r="C42" t="n">
-        <v>11641.09999999999</v>
+        <v>1146.08</v>
       </c>
       <c r="D42" t="n">
-        <v>1058.281818181818</v>
+        <v>91.68639999999998</v>
       </c>
       <c r="E42" t="n">
-        <v>1058.281818181818</v>
+        <v>91.68639999999998</v>
       </c>
       <c r="F42" t="n">
-        <v>1058.281818181818</v>
+        <v>91.68639999999998</v>
       </c>
       <c r="G42" t="n">
-        <v>1058.281818181818</v>
+        <v>80.22559999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>940.6949494949492</v>
+        <v>80.22559999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>823.1080808080807</v>
+        <v>68.76479999999998</v>
       </c>
       <c r="J42" t="n">
-        <v>705.5212121212119</v>
+        <v>57.30399999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>705.5212121212119</v>
+        <v>57.30399999999998</v>
       </c>
       <c r="L42" t="n">
-        <v>705.5212121212119</v>
+        <v>68.76479999999998</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.281818181818</v>
+        <v>91.68639999999998</v>
       </c>
       <c r="N42" t="n">
-        <v>587.9343434343433</v>
+        <v>57.30399999999998</v>
       </c>
       <c r="O42" t="n">
-        <v>470.3474747474746</v>
+        <v>57.30399999999998</v>
       </c>
       <c r="P42" t="n">
-        <v>352.7606060606059</v>
+        <v>68.76479999999998</v>
       </c>
       <c r="Q42" t="n">
-        <v>352.7606060606059</v>
+        <v>45.84319999999999</v>
       </c>
       <c r="R42" t="n">
-        <v>235.1737373737373</v>
+        <v>45.84319999999999</v>
       </c>
       <c r="S42" t="n">
-        <v>470.3474747474746</v>
+        <v>91.68639999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>203</v>
+        <v>2401</v>
       </c>
       <c r="B43" t="n">
-        <v>566.47</v>
+        <v>2324.22</v>
       </c>
       <c r="C43" t="n">
-        <v>2639.17</v>
+        <v>11641.09999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>211.1336</v>
+        <v>1058.281818181818</v>
       </c>
       <c r="E43" t="n">
-        <v>211.1336</v>
+        <v>1058.281818181818</v>
       </c>
       <c r="F43" t="n">
-        <v>211.1336</v>
+        <v>1058.281818181818</v>
       </c>
       <c r="G43" t="n">
-        <v>184.7419</v>
+        <v>1058.281818181818</v>
       </c>
       <c r="H43" t="n">
-        <v>184.7419</v>
+        <v>940.6949494949492</v>
       </c>
       <c r="I43" t="n">
-        <v>158.3502</v>
+        <v>823.1080808080807</v>
       </c>
       <c r="J43" t="n">
-        <v>131.9585</v>
+        <v>705.5212121212119</v>
       </c>
       <c r="K43" t="n">
-        <v>131.9585</v>
+        <v>705.5212121212119</v>
       </c>
       <c r="L43" t="n">
-        <v>158.3502</v>
+        <v>705.5212121212119</v>
       </c>
       <c r="M43" t="n">
-        <v>211.1336</v>
+        <v>1058.281818181818</v>
       </c>
       <c r="N43" t="n">
-        <v>131.9585</v>
+        <v>587.9343434343433</v>
       </c>
       <c r="O43" t="n">
-        <v>131.9585</v>
+        <v>470.3474747474746</v>
       </c>
       <c r="P43" t="n">
-        <v>158.3502</v>
+        <v>352.7606060606059</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.5668</v>
+        <v>352.7606060606059</v>
       </c>
       <c r="R43" t="n">
-        <v>105.5668</v>
+        <v>235.1737373737373</v>
       </c>
       <c r="S43" t="n">
-        <v>211.1336</v>
+        <v>470.3474747474746</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" t="n">
-        <v>613.34</v>
+        <v>566.47</v>
       </c>
       <c r="C44" t="n">
-        <v>2868.53</v>
+        <v>2639.17</v>
       </c>
       <c r="D44" t="n">
-        <v>229.4824</v>
+        <v>211.1336</v>
       </c>
       <c r="E44" t="n">
-        <v>229.4824</v>
+        <v>211.1336</v>
       </c>
       <c r="F44" t="n">
-        <v>229.4824</v>
+        <v>211.1336</v>
       </c>
       <c r="G44" t="n">
-        <v>200.7971</v>
+        <v>184.7419</v>
       </c>
       <c r="H44" t="n">
-        <v>200.7971</v>
+        <v>184.7419</v>
       </c>
       <c r="I44" t="n">
-        <v>172.1118</v>
+        <v>158.3502</v>
       </c>
       <c r="J44" t="n">
-        <v>143.4265</v>
+        <v>131.9585</v>
       </c>
       <c r="K44" t="n">
-        <v>143.4265</v>
+        <v>131.9585</v>
       </c>
       <c r="L44" t="n">
-        <v>172.1118</v>
+        <v>158.3502</v>
       </c>
       <c r="M44" t="n">
-        <v>229.4824</v>
+        <v>211.1336</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4265</v>
+        <v>131.9585</v>
       </c>
       <c r="O44" t="n">
-        <v>143.4265</v>
+        <v>131.9585</v>
       </c>
       <c r="P44" t="n">
-        <v>172.1118</v>
+        <v>158.3502</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.7412</v>
+        <v>105.5668</v>
       </c>
       <c r="R44" t="n">
-        <v>114.7412</v>
+        <v>105.5668</v>
       </c>
       <c r="S44" t="n">
-        <v>229.4824</v>
+        <v>211.1336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6609</v>
+        <v>204</v>
       </c>
       <c r="B45" t="n">
-        <v>1796.58</v>
+        <v>613.34</v>
       </c>
       <c r="C45" t="n">
-        <v>7620.659999999998</v>
+        <v>2868.53</v>
       </c>
       <c r="D45" t="n">
-        <v>679.0687128712869</v>
+        <v>229.4824</v>
       </c>
       <c r="E45" t="n">
-        <v>679.0687128712869</v>
+        <v>229.4824</v>
       </c>
       <c r="F45" t="n">
-        <v>603.6166336633662</v>
+        <v>229.4824</v>
       </c>
       <c r="G45" t="n">
-        <v>603.6166336633662</v>
+        <v>200.7971</v>
       </c>
       <c r="H45" t="n">
-        <v>603.6166336633662</v>
+        <v>200.7971</v>
       </c>
       <c r="I45" t="n">
-        <v>528.1645544554455</v>
+        <v>172.1118</v>
       </c>
       <c r="J45" t="n">
-        <v>452.7124752475246</v>
+        <v>143.4265</v>
       </c>
       <c r="K45" t="n">
-        <v>452.7124752475246</v>
+        <v>143.4265</v>
       </c>
       <c r="L45" t="n">
-        <v>452.7124752475246</v>
+        <v>172.1118</v>
       </c>
       <c r="M45" t="n">
-        <v>679.0687128712869</v>
+        <v>229.4824</v>
       </c>
       <c r="N45" t="n">
-        <v>377.2603960396038</v>
+        <v>143.4265</v>
       </c>
       <c r="O45" t="n">
-        <v>377.2603960396038</v>
+        <v>143.4265</v>
       </c>
       <c r="P45" t="n">
-        <v>301.8083168316831</v>
+        <v>172.1118</v>
       </c>
       <c r="Q45" t="n">
-        <v>226.3562376237623</v>
+        <v>114.7412</v>
       </c>
       <c r="R45" t="n">
-        <v>226.3562376237623</v>
+        <v>114.7412</v>
       </c>
       <c r="S45" t="n">
-        <v>377.2603960396038</v>
+        <v>229.4824</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6601</v>
+        <v>6609</v>
       </c>
       <c r="B46" t="n">
-        <v>1095.57</v>
+        <v>1796.58</v>
       </c>
       <c r="C46" t="n">
-        <v>4569.499999999999</v>
+        <v>7620.659999999998</v>
       </c>
       <c r="D46" t="n">
-        <v>407.1831683168316</v>
+        <v>679.0687128712869</v>
       </c>
       <c r="E46" t="n">
-        <v>407.1831683168316</v>
+        <v>679.0687128712869</v>
       </c>
       <c r="F46" t="n">
-        <v>361.9405940594059</v>
+        <v>603.6166336633662</v>
       </c>
       <c r="G46" t="n">
-        <v>361.9405940594059</v>
+        <v>603.6166336633662</v>
       </c>
       <c r="H46" t="n">
-        <v>361.9405940594059</v>
+        <v>603.6166336633662</v>
       </c>
       <c r="I46" t="n">
-        <v>316.6980198019801</v>
+        <v>528.1645544554455</v>
       </c>
       <c r="J46" t="n">
-        <v>271.4554455445544</v>
+        <v>452.7124752475246</v>
       </c>
       <c r="K46" t="n">
-        <v>271.4554455445544</v>
+        <v>452.7124752475246</v>
       </c>
       <c r="L46" t="n">
-        <v>271.4554455445544</v>
+        <v>452.7124752475246</v>
       </c>
       <c r="M46" t="n">
-        <v>407.1831683168316</v>
+        <v>679.0687128712869</v>
       </c>
       <c r="N46" t="n">
-        <v>226.2128712871286</v>
+        <v>377.2603960396038</v>
       </c>
       <c r="O46" t="n">
-        <v>226.2128712871286</v>
+        <v>377.2603960396038</v>
       </c>
       <c r="P46" t="n">
-        <v>180.9702970297029</v>
+        <v>301.8083168316831</v>
       </c>
       <c r="Q46" t="n">
-        <v>135.7277227722772</v>
+        <v>226.3562376237623</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7277227722772</v>
+        <v>226.3562376237623</v>
       </c>
       <c r="S46" t="n">
-        <v>226.2128712871286</v>
+        <v>377.2603960396038</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6506</v>
+        <v>6601</v>
       </c>
       <c r="B47" t="n">
-        <v>1653.4</v>
+        <v>1095.57</v>
       </c>
       <c r="C47" t="n">
-        <v>7440.289999999999</v>
+        <v>4569.499999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>662.9961386138613</v>
+        <v>407.1831683168316</v>
       </c>
       <c r="E47" t="n">
-        <v>589.329900990099</v>
+        <v>407.1831683168316</v>
       </c>
       <c r="F47" t="n">
-        <v>589.329900990099</v>
+        <v>361.9405940594059</v>
       </c>
       <c r="G47" t="n">
-        <v>589.329900990099</v>
+        <v>361.9405940594059</v>
       </c>
       <c r="H47" t="n">
-        <v>589.329900990099</v>
+        <v>361.9405940594059</v>
       </c>
       <c r="I47" t="n">
-        <v>515.6636633663366</v>
+        <v>316.6980198019801</v>
       </c>
       <c r="J47" t="n">
-        <v>441.9974257425741</v>
+        <v>271.4554455445544</v>
       </c>
       <c r="K47" t="n">
-        <v>441.9974257425741</v>
+        <v>271.4554455445544</v>
       </c>
       <c r="L47" t="n">
-        <v>441.9974257425741</v>
+        <v>271.4554455445544</v>
       </c>
       <c r="M47" t="n">
-        <v>662.9961386138613</v>
+        <v>407.1831683168316</v>
       </c>
       <c r="N47" t="n">
-        <v>441.9974257425741</v>
+        <v>226.2128712871286</v>
       </c>
       <c r="O47" t="n">
-        <v>368.3311881188118</v>
+        <v>226.2128712871286</v>
       </c>
       <c r="P47" t="n">
-        <v>294.6649504950495</v>
+        <v>180.9702970297029</v>
       </c>
       <c r="Q47" t="n">
-        <v>220.9987128712871</v>
+        <v>135.7277227722772</v>
       </c>
       <c r="R47" t="n">
-        <v>220.9987128712871</v>
+        <v>135.7277227722772</v>
       </c>
       <c r="S47" t="n">
-        <v>368.3311881188118</v>
+        <v>226.2128712871286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6801</v>
+        <v>6506</v>
       </c>
       <c r="B48" t="n">
-        <v>8864.77</v>
+        <v>1653.4</v>
       </c>
       <c r="C48" t="n">
-        <v>45197.55999999999</v>
+        <v>7440.289999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>4027.505346534652</v>
+        <v>662.9961386138613</v>
       </c>
       <c r="E48" t="n">
-        <v>4027.505346534652</v>
+        <v>589.329900990099</v>
       </c>
       <c r="F48" t="n">
-        <v>4027.505346534652</v>
+        <v>589.329900990099</v>
       </c>
       <c r="G48" t="n">
-        <v>3580.004752475247</v>
+        <v>589.329900990099</v>
       </c>
       <c r="H48" t="n">
-        <v>3580.004752475247</v>
+        <v>589.329900990099</v>
       </c>
       <c r="I48" t="n">
-        <v>3132.504158415841</v>
+        <v>515.6636633663366</v>
       </c>
       <c r="J48" t="n">
-        <v>3132.504158415841</v>
+        <v>441.9974257425741</v>
       </c>
       <c r="K48" t="n">
-        <v>3132.504158415841</v>
+        <v>441.9974257425741</v>
       </c>
       <c r="L48" t="n">
-        <v>2685.003564356435</v>
+        <v>441.9974257425741</v>
       </c>
       <c r="M48" t="n">
-        <v>4027.505346534652</v>
+        <v>662.9961386138613</v>
       </c>
       <c r="N48" t="n">
-        <v>2237.502970297029</v>
+        <v>441.9974257425741</v>
       </c>
       <c r="O48" t="n">
-        <v>1790.002376237623</v>
+        <v>368.3311881188118</v>
       </c>
       <c r="P48" t="n">
-        <v>1342.501782178217</v>
+        <v>294.6649504950495</v>
       </c>
       <c r="Q48" t="n">
-        <v>1342.501782178217</v>
+        <v>220.9987128712871</v>
       </c>
       <c r="R48" t="n">
-        <v>1342.501782178217</v>
+        <v>220.9987128712871</v>
       </c>
       <c r="S48" t="n">
-        <v>1790.002376237623</v>
+        <v>368.3311881188118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1101</v>
+        <v>6801</v>
       </c>
       <c r="B49" t="n">
-        <v>2293.45</v>
+        <v>8864.77</v>
       </c>
       <c r="C49" t="n">
-        <v>9471.899999999996</v>
+        <v>45197.55999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>861.0818181818178</v>
+        <v>4027.505346534652</v>
       </c>
       <c r="E49" t="n">
-        <v>861.0818181818178</v>
+        <v>4027.505346534652</v>
       </c>
       <c r="F49" t="n">
-        <v>861.0818181818178</v>
+        <v>4027.505346534652</v>
       </c>
       <c r="G49" t="n">
-        <v>861.0818181818178</v>
+        <v>3580.004752475247</v>
       </c>
       <c r="H49" t="n">
-        <v>765.4060606060604</v>
+        <v>3580.004752475247</v>
       </c>
       <c r="I49" t="n">
-        <v>669.7303030303028</v>
+        <v>3132.504158415841</v>
       </c>
       <c r="J49" t="n">
-        <v>574.0545454545453</v>
+        <v>3132.504158415841</v>
       </c>
       <c r="K49" t="n">
-        <v>574.0545454545453</v>
+        <v>3132.504158415841</v>
       </c>
       <c r="L49" t="n">
-        <v>574.0545454545453</v>
+        <v>2685.003564356435</v>
       </c>
       <c r="M49" t="n">
-        <v>861.0818181818178</v>
+        <v>4027.505346534652</v>
       </c>
       <c r="N49" t="n">
-        <v>478.3787878787877</v>
+        <v>2237.502970297029</v>
       </c>
       <c r="O49" t="n">
-        <v>382.7030303030302</v>
+        <v>1790.002376237623</v>
       </c>
       <c r="P49" t="n">
-        <v>287.0272727272726</v>
+        <v>1342.501782178217</v>
       </c>
       <c r="Q49" t="n">
-        <v>287.0272727272726</v>
+        <v>1342.501782178217</v>
       </c>
       <c r="R49" t="n">
-        <v>191.3515151515151</v>
+        <v>1342.501782178217</v>
       </c>
       <c r="S49" t="n">
-        <v>382.7030303030302</v>
+        <v>1790.002376237623</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1518.01</v>
-      </c>
+        <v>6608</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>6221.069999999998</v>
-      </c>
-      <c r="D50" t="n">
-        <v>565.5518181818179</v>
-      </c>
-      <c r="E50" t="n">
-        <v>565.5518181818179</v>
-      </c>
-      <c r="F50" t="n">
-        <v>565.5518181818179</v>
-      </c>
-      <c r="G50" t="n">
-        <v>565.5518181818179</v>
-      </c>
-      <c r="H50" t="n">
-        <v>502.7127272727271</v>
-      </c>
-      <c r="I50" t="n">
-        <v>439.8736363636363</v>
-      </c>
-      <c r="J50" t="n">
-        <v>377.0345454545453</v>
-      </c>
-      <c r="K50" t="n">
-        <v>377.0345454545453</v>
-      </c>
-      <c r="L50" t="n">
-        <v>377.0345454545453</v>
-      </c>
-      <c r="M50" t="n">
-        <v>565.5518181818179</v>
-      </c>
-      <c r="N50" t="n">
-        <v>314.1954545454544</v>
-      </c>
-      <c r="O50" t="n">
-        <v>251.3563636363636</v>
-      </c>
-      <c r="P50" t="n">
-        <v>188.5172727272727</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>188.5172727272727</v>
-      </c>
-      <c r="R50" t="n">
-        <v>125.6781818181818</v>
-      </c>
-      <c r="S50" t="n">
-        <v>251.3563636363636</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B51" t="n">
-        <v>1278.3</v>
+        <v>2293.45</v>
       </c>
       <c r="C51" t="n">
-        <v>5303.559999999998</v>
+        <v>9471.899999999996</v>
       </c>
       <c r="D51" t="n">
-        <v>482.141818181818</v>
+        <v>861.0818181818178</v>
       </c>
       <c r="E51" t="n">
-        <v>482.141818181818</v>
+        <v>861.0818181818178</v>
       </c>
       <c r="F51" t="n">
-        <v>482.141818181818</v>
+        <v>861.0818181818178</v>
       </c>
       <c r="G51" t="n">
-        <v>482.141818181818</v>
+        <v>861.0818181818178</v>
       </c>
       <c r="H51" t="n">
-        <v>428.5705050505049</v>
+        <v>765.4060606060604</v>
       </c>
       <c r="I51" t="n">
-        <v>374.9991919191918</v>
+        <v>669.7303030303028</v>
       </c>
       <c r="J51" t="n">
-        <v>321.4278787878787</v>
+        <v>574.0545454545453</v>
       </c>
       <c r="K51" t="n">
-        <v>321.4278787878787</v>
+        <v>574.0545454545453</v>
       </c>
       <c r="L51" t="n">
-        <v>321.4278787878787</v>
+        <v>574.0545454545453</v>
       </c>
       <c r="M51" t="n">
-        <v>482.141818181818</v>
+        <v>861.0818181818178</v>
       </c>
       <c r="N51" t="n">
-        <v>267.8565656565656</v>
+        <v>478.3787878787877</v>
       </c>
       <c r="O51" t="n">
-        <v>214.2852525252525</v>
+        <v>382.7030303030302</v>
       </c>
       <c r="P51" t="n">
-        <v>160.7139393939393</v>
+        <v>287.0272727272726</v>
       </c>
       <c r="Q51" t="n">
-        <v>160.7139393939393</v>
+        <v>287.0272727272726</v>
       </c>
       <c r="R51" t="n">
-        <v>107.1426262626262</v>
+        <v>191.3515151515151</v>
       </c>
       <c r="S51" t="n">
-        <v>214.2852525252525</v>
+        <v>382.7030303030302</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="n">
-        <v>1104.54</v>
+        <v>1518.01</v>
       </c>
       <c r="C52" t="n">
-        <v>4641.729999999998</v>
+        <v>6221.069999999998</v>
       </c>
       <c r="D52" t="n">
-        <v>421.9754545454543</v>
+        <v>565.5518181818179</v>
       </c>
       <c r="E52" t="n">
-        <v>421.9754545454543</v>
+        <v>565.5518181818179</v>
       </c>
       <c r="F52" t="n">
-        <v>421.9754545454543</v>
+        <v>565.5518181818179</v>
       </c>
       <c r="G52" t="n">
-        <v>421.9754545454543</v>
+        <v>565.5518181818179</v>
       </c>
       <c r="H52" t="n">
-        <v>375.0892929292928</v>
+        <v>502.7127272727271</v>
       </c>
       <c r="I52" t="n">
-        <v>328.2031313131312</v>
+        <v>439.8736363636363</v>
       </c>
       <c r="J52" t="n">
-        <v>281.3169696969696</v>
+        <v>377.0345454545453</v>
       </c>
       <c r="K52" t="n">
-        <v>281.3169696969696</v>
+        <v>377.0345454545453</v>
       </c>
       <c r="L52" t="n">
-        <v>281.3169696969696</v>
+        <v>377.0345454545453</v>
       </c>
       <c r="M52" t="n">
-        <v>421.9754545454543</v>
+        <v>565.5518181818179</v>
       </c>
       <c r="N52" t="n">
-        <v>234.430808080808</v>
+        <v>314.1954545454544</v>
       </c>
       <c r="O52" t="n">
-        <v>187.5446464646464</v>
+        <v>251.3563636363636</v>
       </c>
       <c r="P52" t="n">
-        <v>140.6584848484848</v>
+        <v>188.5172727272727</v>
       </c>
       <c r="Q52" t="n">
-        <v>140.6584848484848</v>
+        <v>188.5172727272727</v>
       </c>
       <c r="R52" t="n">
-        <v>93.7723232323232</v>
+        <v>125.6781818181818</v>
       </c>
       <c r="S52" t="n">
-        <v>187.5446464646464</v>
+        <v>251.3563636363636</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="B53" t="n">
-        <v>1085.82</v>
+        <v>1278.3</v>
       </c>
       <c r="C53" t="n">
-        <v>4583.749999999999</v>
+        <v>5303.559999999998</v>
       </c>
       <c r="D53" t="n">
-        <v>412.5374999999999</v>
+        <v>482.141818181818</v>
       </c>
       <c r="E53" t="n">
-        <v>412.5374999999999</v>
+        <v>482.141818181818</v>
       </c>
       <c r="F53" t="n">
-        <v>412.5374999999999</v>
+        <v>482.141818181818</v>
       </c>
       <c r="G53" t="n">
-        <v>366.6999999999999</v>
+        <v>482.141818181818</v>
       </c>
       <c r="H53" t="n">
-        <v>366.6999999999999</v>
+        <v>428.5705050505049</v>
       </c>
       <c r="I53" t="n">
-        <v>320.8625</v>
+        <v>374.9991919191918</v>
       </c>
       <c r="J53" t="n">
-        <v>275.0249999999999</v>
+        <v>321.4278787878787</v>
       </c>
       <c r="K53" t="n">
-        <v>275.0249999999999</v>
+        <v>321.4278787878787</v>
       </c>
       <c r="L53" t="n">
-        <v>275.0249999999999</v>
+        <v>321.4278787878787</v>
       </c>
       <c r="M53" t="n">
-        <v>412.5374999999999</v>
+        <v>482.141818181818</v>
       </c>
       <c r="N53" t="n">
-        <v>229.1874999999999</v>
+        <v>267.8565656565656</v>
       </c>
       <c r="O53" t="n">
-        <v>183.35</v>
+        <v>214.2852525252525</v>
       </c>
       <c r="P53" t="n">
-        <v>137.5125</v>
+        <v>160.7139393939393</v>
       </c>
       <c r="Q53" t="n">
-        <v>137.5125</v>
+        <v>160.7139393939393</v>
       </c>
       <c r="R53" t="n">
-        <v>137.5125</v>
+        <v>107.1426262626262</v>
       </c>
       <c r="S53" t="n">
-        <v>229.1874999999999</v>
+        <v>214.2852525252525</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1203</v>
+        <v>1102</v>
       </c>
       <c r="B54" t="n">
-        <v>828.21</v>
+        <v>1104.54</v>
       </c>
       <c r="C54" t="n">
-        <v>3493.769999999999</v>
+        <v>4641.729999999998</v>
       </c>
       <c r="D54" t="n">
-        <v>314.4392999999999</v>
+        <v>421.9754545454543</v>
       </c>
       <c r="E54" t="n">
-        <v>314.4392999999999</v>
+        <v>421.9754545454543</v>
       </c>
       <c r="F54" t="n">
-        <v>314.4392999999999</v>
+        <v>421.9754545454543</v>
       </c>
       <c r="G54" t="n">
-        <v>279.5015999999999</v>
+        <v>421.9754545454543</v>
       </c>
       <c r="H54" t="n">
-        <v>279.5015999999999</v>
+        <v>375.0892929292928</v>
       </c>
       <c r="I54" t="n">
-        <v>244.5639</v>
+        <v>328.2031313131312</v>
       </c>
       <c r="J54" t="n">
-        <v>209.6262</v>
+        <v>281.3169696969696</v>
       </c>
       <c r="K54" t="n">
-        <v>209.6262</v>
+        <v>281.3169696969696</v>
       </c>
       <c r="L54" t="n">
-        <v>209.6262</v>
+        <v>281.3169696969696</v>
       </c>
       <c r="M54" t="n">
-        <v>314.4392999999999</v>
+        <v>421.9754545454543</v>
       </c>
       <c r="N54" t="n">
-        <v>174.6884999999999</v>
+        <v>234.430808080808</v>
       </c>
       <c r="O54" t="n">
-        <v>139.7508</v>
+        <v>187.5446464646464</v>
       </c>
       <c r="P54" t="n">
-        <v>104.8131</v>
+        <v>140.6584848484848</v>
       </c>
       <c r="Q54" t="n">
-        <v>104.8131</v>
+        <v>140.6584848484848</v>
       </c>
       <c r="R54" t="n">
-        <v>104.8131</v>
+        <v>93.7723232323232</v>
       </c>
       <c r="S54" t="n">
-        <v>174.6884999999999</v>
+        <v>187.5446464646464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2202</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="n">
-        <v>2201.99</v>
+        <v>1085.82</v>
       </c>
       <c r="C55" t="n">
-        <v>9157.879999999997</v>
+        <v>4583.749999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>832.534545454545</v>
+        <v>412.5374999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>832.534545454545</v>
+        <v>412.5374999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>832.534545454545</v>
+        <v>412.5374999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>740.0307070707069</v>
+        <v>366.6999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>740.0307070707069</v>
+        <v>366.6999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>647.5268686868685</v>
+        <v>320.8625</v>
       </c>
       <c r="J55" t="n">
-        <v>555.0230303030301</v>
+        <v>275.0249999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>555.0230303030301</v>
+        <v>275.0249999999999</v>
       </c>
       <c r="L55" t="n">
-        <v>555.0230303030301</v>
+        <v>275.0249999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>832.534545454545</v>
+        <v>412.5374999999999</v>
       </c>
       <c r="N55" t="n">
-        <v>462.5191919191918</v>
+        <v>229.1874999999999</v>
       </c>
       <c r="O55" t="n">
-        <v>370.0153535353534</v>
+        <v>183.35</v>
       </c>
       <c r="P55" t="n">
-        <v>277.511515151515</v>
+        <v>137.5125</v>
       </c>
       <c r="Q55" t="n">
-        <v>277.511515151515</v>
+        <v>137.5125</v>
       </c>
       <c r="R55" t="n">
-        <v>277.511515151515</v>
+        <v>137.5125</v>
       </c>
       <c r="S55" t="n">
-        <v>370.0153535353534</v>
+        <v>229.1874999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2201</v>
+        <v>1203</v>
       </c>
       <c r="B56" t="n">
-        <v>1857.58</v>
+        <v>828.21</v>
       </c>
       <c r="C56" t="n">
-        <v>7546.939999999998</v>
+        <v>3493.769999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>686.0854545454542</v>
+        <v>314.4392999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>686.0854545454542</v>
+        <v>314.4392999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>686.0854545454542</v>
+        <v>314.4392999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>609.8537373737372</v>
+        <v>279.5015999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>609.8537373737372</v>
+        <v>279.5015999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>533.6220202020201</v>
+        <v>244.5639</v>
       </c>
       <c r="J56" t="n">
-        <v>457.3903030303028</v>
+        <v>209.6262</v>
       </c>
       <c r="K56" t="n">
-        <v>457.3903030303028</v>
+        <v>209.6262</v>
       </c>
       <c r="L56" t="n">
-        <v>457.3903030303028</v>
+        <v>209.6262</v>
       </c>
       <c r="M56" t="n">
-        <v>686.0854545454542</v>
+        <v>314.4392999999999</v>
       </c>
       <c r="N56" t="n">
-        <v>381.1585858585858</v>
+        <v>174.6884999999999</v>
       </c>
       <c r="O56" t="n">
-        <v>304.9268686868686</v>
+        <v>139.7508</v>
       </c>
       <c r="P56" t="n">
-        <v>228.6951515151514</v>
+        <v>104.8131</v>
       </c>
       <c r="Q56" t="n">
-        <v>228.6951515151514</v>
+        <v>104.8131</v>
       </c>
       <c r="R56" t="n">
-        <v>228.6951515151514</v>
+        <v>104.8131</v>
       </c>
       <c r="S56" t="n">
-        <v>304.9268686868686</v>
+        <v>174.6884999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2302</v>
+        <v>2202</v>
       </c>
       <c r="B57" t="n">
-        <v>2284.6</v>
+        <v>2201.99</v>
       </c>
       <c r="C57" t="n">
-        <v>9965.729999999996</v>
+        <v>9157.879999999997</v>
       </c>
       <c r="D57" t="n">
-        <v>879.3291176470585</v>
+        <v>832.534545454545</v>
       </c>
       <c r="E57" t="n">
-        <v>879.3291176470585</v>
+        <v>832.534545454545</v>
       </c>
       <c r="F57" t="n">
-        <v>879.3291176470585</v>
+        <v>832.534545454545</v>
       </c>
       <c r="G57" t="n">
-        <v>879.3291176470585</v>
+        <v>740.0307070707069</v>
       </c>
       <c r="H57" t="n">
-        <v>781.6258823529409</v>
+        <v>740.0307070707069</v>
       </c>
       <c r="I57" t="n">
-        <v>683.9226470588234</v>
+        <v>647.5268686868685</v>
       </c>
       <c r="J57" t="n">
-        <v>586.2194117647057</v>
+        <v>555.0230303030301</v>
       </c>
       <c r="K57" t="n">
-        <v>586.2194117647057</v>
+        <v>555.0230303030301</v>
       </c>
       <c r="L57" t="n">
-        <v>586.2194117647057</v>
+        <v>555.0230303030301</v>
       </c>
       <c r="M57" t="n">
-        <v>879.3291176470585</v>
+        <v>832.534545454545</v>
       </c>
       <c r="N57" t="n">
-        <v>488.5161764705882</v>
+        <v>462.5191919191918</v>
       </c>
       <c r="O57" t="n">
-        <v>488.5161764705882</v>
+        <v>370.0153535353534</v>
       </c>
       <c r="P57" t="n">
-        <v>293.1097058823528</v>
+        <v>277.511515151515</v>
       </c>
       <c r="Q57" t="n">
-        <v>293.1097058823528</v>
+        <v>277.511515151515</v>
       </c>
       <c r="R57" t="n">
-        <v>293.1097058823528</v>
+        <v>277.511515151515</v>
       </c>
       <c r="S57" t="n">
-        <v>488.5161764705882</v>
+        <v>370.0153535353534</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B58" t="n">
-        <v>1893.34</v>
+        <v>1857.58</v>
       </c>
       <c r="C58" t="n">
-        <v>7945.009999999998</v>
+        <v>7546.939999999998</v>
       </c>
       <c r="D58" t="n">
-        <v>701.0302941176469</v>
+        <v>686.0854545454542</v>
       </c>
       <c r="E58" t="n">
-        <v>701.0302941176469</v>
+        <v>686.0854545454542</v>
       </c>
       <c r="F58" t="n">
-        <v>701.0302941176469</v>
+        <v>686.0854545454542</v>
       </c>
       <c r="G58" t="n">
-        <v>701.0302941176469</v>
+        <v>609.8537373737372</v>
       </c>
       <c r="H58" t="n">
-        <v>623.1380392156861</v>
+        <v>609.8537373737372</v>
       </c>
       <c r="I58" t="n">
-        <v>545.2457843137255</v>
+        <v>533.6220202020201</v>
       </c>
       <c r="J58" t="n">
-        <v>467.3535294117646</v>
+        <v>457.3903030303028</v>
       </c>
       <c r="K58" t="n">
-        <v>467.3535294117646</v>
+        <v>457.3903030303028</v>
       </c>
       <c r="L58" t="n">
-        <v>467.3535294117646</v>
+        <v>457.3903030303028</v>
       </c>
       <c r="M58" t="n">
-        <v>701.0302941176469</v>
+        <v>686.0854545454542</v>
       </c>
       <c r="N58" t="n">
-        <v>389.4612745098039</v>
+        <v>381.1585858585858</v>
       </c>
       <c r="O58" t="n">
-        <v>389.4612745098039</v>
+        <v>304.9268686868686</v>
       </c>
       <c r="P58" t="n">
-        <v>233.6767647058823</v>
+        <v>228.6951515151514</v>
       </c>
       <c r="Q58" t="n">
-        <v>233.6767647058823</v>
+        <v>228.6951515151514</v>
       </c>
       <c r="R58" t="n">
-        <v>233.6767647058823</v>
+        <v>228.6951515151514</v>
       </c>
       <c r="S58" t="n">
-        <v>389.4612745098039</v>
+        <v>304.9268686868686</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2102</v>
+        <v>2302</v>
       </c>
       <c r="B59" t="n">
-        <v>2029.68</v>
+        <v>2284.6</v>
       </c>
       <c r="C59" t="n">
-        <v>9133.579999999996</v>
+        <v>9965.729999999996</v>
       </c>
       <c r="D59" t="n">
-        <v>830.3254545454541</v>
+        <v>879.3291176470585</v>
       </c>
       <c r="E59" t="n">
-        <v>830.3254545454541</v>
+        <v>879.3291176470585</v>
       </c>
       <c r="F59" t="n">
-        <v>830.3254545454541</v>
+        <v>879.3291176470585</v>
       </c>
       <c r="G59" t="n">
-        <v>738.0670707070705</v>
+        <v>879.3291176470585</v>
       </c>
       <c r="H59" t="n">
-        <v>738.0670707070705</v>
+        <v>781.6258823529409</v>
       </c>
       <c r="I59" t="n">
-        <v>645.8086868686867</v>
+        <v>683.9226470588234</v>
       </c>
       <c r="J59" t="n">
-        <v>553.5503030303029</v>
+        <v>586.2194117647057</v>
       </c>
       <c r="K59" t="n">
-        <v>553.5503030303029</v>
+        <v>586.2194117647057</v>
       </c>
       <c r="L59" t="n">
-        <v>553.5503030303029</v>
+        <v>586.2194117647057</v>
       </c>
       <c r="M59" t="n">
-        <v>830.3254545454541</v>
+        <v>879.3291176470585</v>
       </c>
       <c r="N59" t="n">
-        <v>461.2919191919191</v>
+        <v>488.5161764705882</v>
       </c>
       <c r="O59" t="n">
-        <v>369.0335353535352</v>
+        <v>488.5161764705882</v>
       </c>
       <c r="P59" t="n">
-        <v>276.7751515151514</v>
+        <v>293.1097058823528</v>
       </c>
       <c r="Q59" t="n">
-        <v>276.7751515151514</v>
+        <v>293.1097058823528</v>
       </c>
       <c r="R59" t="n">
-        <v>276.7751515151514</v>
+        <v>293.1097058823528</v>
       </c>
       <c r="S59" t="n">
-        <v>369.0335353535352</v>
+        <v>488.5161764705882</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2103</v>
+        <v>2301</v>
       </c>
       <c r="B60" t="n">
-        <v>1629.52</v>
+        <v>1893.34</v>
       </c>
       <c r="C60" t="n">
-        <v>7282.219999999998</v>
+        <v>7945.009999999998</v>
       </c>
       <c r="D60" t="n">
-        <v>662.0199999999998</v>
+        <v>701.0302941176469</v>
       </c>
       <c r="E60" t="n">
-        <v>662.0199999999998</v>
+        <v>701.0302941176469</v>
       </c>
       <c r="F60" t="n">
-        <v>662.0199999999998</v>
+        <v>701.0302941176469</v>
       </c>
       <c r="G60" t="n">
-        <v>588.4622222222221</v>
+        <v>701.0302941176469</v>
       </c>
       <c r="H60" t="n">
-        <v>588.4622222222221</v>
+        <v>623.1380392156861</v>
       </c>
       <c r="I60" t="n">
-        <v>514.9044444444444</v>
+        <v>545.2457843137255</v>
       </c>
       <c r="J60" t="n">
-        <v>441.3466666666665</v>
+        <v>467.3535294117646</v>
       </c>
       <c r="K60" t="n">
-        <v>441.3466666666665</v>
+        <v>467.3535294117646</v>
       </c>
       <c r="L60" t="n">
-        <v>441.3466666666665</v>
+        <v>467.3535294117646</v>
       </c>
       <c r="M60" t="n">
-        <v>662.0199999999998</v>
+        <v>701.0302941176469</v>
       </c>
       <c r="N60" t="n">
-        <v>367.7888888888888</v>
+        <v>389.4612745098039</v>
       </c>
       <c r="O60" t="n">
-        <v>294.231111111111</v>
+        <v>389.4612745098039</v>
       </c>
       <c r="P60" t="n">
-        <v>220.6733333333333</v>
+        <v>233.6767647058823</v>
       </c>
       <c r="Q60" t="n">
-        <v>220.6733333333333</v>
+        <v>233.6767647058823</v>
       </c>
       <c r="R60" t="n">
-        <v>220.6733333333333</v>
+        <v>233.6767647058823</v>
       </c>
       <c r="S60" t="n">
-        <v>294.231111111111</v>
+        <v>389.4612745098039</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1204</v>
+        <v>2102</v>
       </c>
       <c r="B61" t="n">
-        <v>1862.34</v>
+        <v>2029.68</v>
       </c>
       <c r="C61" t="n">
-        <v>7826.249999999998</v>
+        <v>9133.579999999996</v>
       </c>
       <c r="D61" t="n">
-        <v>704.3624999999998</v>
+        <v>830.3254545454541</v>
       </c>
       <c r="E61" t="n">
-        <v>704.3624999999998</v>
+        <v>830.3254545454541</v>
       </c>
       <c r="F61" t="n">
-        <v>704.3624999999998</v>
+        <v>830.3254545454541</v>
       </c>
       <c r="G61" t="n">
-        <v>626.0999999999999</v>
+        <v>738.0670707070705</v>
       </c>
       <c r="H61" t="n">
-        <v>626.0999999999999</v>
+        <v>738.0670707070705</v>
       </c>
       <c r="I61" t="n">
-        <v>547.8375</v>
+        <v>645.8086868686867</v>
       </c>
       <c r="J61" t="n">
-        <v>469.5749999999999</v>
+        <v>553.5503030303029</v>
       </c>
       <c r="K61" t="n">
-        <v>469.5749999999999</v>
+        <v>553.5503030303029</v>
       </c>
       <c r="L61" t="n">
-        <v>469.5749999999999</v>
+        <v>553.5503030303029</v>
       </c>
       <c r="M61" t="n">
-        <v>704.3624999999998</v>
+        <v>830.3254545454541</v>
       </c>
       <c r="N61" t="n">
-        <v>391.3124999999999</v>
+        <v>461.2919191919191</v>
       </c>
       <c r="O61" t="n">
-        <v>313.05</v>
+        <v>369.0335353535352</v>
       </c>
       <c r="P61" t="n">
-        <v>234.7874999999999</v>
+        <v>276.7751515151514</v>
       </c>
       <c r="Q61" t="n">
-        <v>234.7874999999999</v>
+        <v>276.7751515151514</v>
       </c>
       <c r="R61" t="n">
-        <v>234.7874999999999</v>
+        <v>276.7751515151514</v>
       </c>
       <c r="S61" t="n">
-        <v>391.3124999999999</v>
+        <v>369.0335353535352</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1205</v>
+        <v>2103</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1629.52</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>7282.219999999998</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>662.0199999999998</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>662.0199999999998</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>662.0199999999998</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>588.4622222222221</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>588.4622222222221</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>514.9044444444444</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>441.3466666666665</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>441.3466666666665</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>441.3466666666665</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>662.0199999999998</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>367.7888888888888</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>294.231111111111</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>220.6733333333333</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>220.6733333333333</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>220.6733333333333</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>294.231111111111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6501</v>
+        <v>1204</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1862.34</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>7826.249999999998</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>704.3624999999998</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>704.3624999999998</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>704.3624999999998</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>626.0999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>626.0999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>547.8375</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>469.5749999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>469.5749999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>469.5749999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>704.3624999999998</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>391.3124999999999</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>313.05</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>234.7874999999999</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>234.7874999999999</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>234.7874999999999</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>391.3124999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2480.57</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>11162.58</v>
-      </c>
-      <c r="D64" t="n">
-        <v>994.6853465346533</v>
-      </c>
-      <c r="E64" t="n">
-        <v>884.1647524752474</v>
-      </c>
-      <c r="F64" t="n">
-        <v>884.1647524752474</v>
-      </c>
-      <c r="G64" t="n">
-        <v>884.1647524752474</v>
-      </c>
-      <c r="H64" t="n">
-        <v>884.1647524752474</v>
-      </c>
-      <c r="I64" t="n">
-        <v>773.6441584158415</v>
-      </c>
-      <c r="J64" t="n">
-        <v>663.1235643564355</v>
-      </c>
-      <c r="K64" t="n">
-        <v>663.1235643564355</v>
-      </c>
-      <c r="L64" t="n">
-        <v>663.1235643564355</v>
-      </c>
-      <c r="M64" t="n">
-        <v>994.6853465346533</v>
-      </c>
-      <c r="N64" t="n">
-        <v>663.1235643564355</v>
-      </c>
-      <c r="O64" t="n">
-        <v>552.6029702970295</v>
-      </c>
-      <c r="P64" t="n">
-        <v>442.0823762376237</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>331.5617821782178</v>
-      </c>
-      <c r="R64" t="n">
-        <v>331.5617821782178</v>
-      </c>
-      <c r="S64" t="n">
-        <v>552.6029702970295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6802</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7152</v>
-      </c>
+        <v>6501</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>36658.24999999999</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3266.576732673267</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3266.576732673267</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3266.576732673267</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2903.623762376237</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2903.623762376237</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2540.670792079208</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2540.670792079208</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2540.670792079208</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2177.717821782177</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3266.576732673267</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1814.764851485148</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1451.811881188119</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1088.858910891089</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1088.858910891089</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1088.858910891089</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1451.811881188119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3307</v>
+        <v>6502</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2480.57</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+        <v>11162.58</v>
+      </c>
+      <c r="D66" t="n">
+        <v>994.6853465346533</v>
+      </c>
+      <c r="E66" t="n">
+        <v>884.1647524752474</v>
+      </c>
+      <c r="F66" t="n">
+        <v>884.1647524752474</v>
+      </c>
+      <c r="G66" t="n">
+        <v>884.1647524752474</v>
+      </c>
+      <c r="H66" t="n">
+        <v>884.1647524752474</v>
+      </c>
+      <c r="I66" t="n">
+        <v>773.6441584158415</v>
+      </c>
+      <c r="J66" t="n">
+        <v>663.1235643564355</v>
+      </c>
+      <c r="K66" t="n">
+        <v>663.1235643564355</v>
+      </c>
+      <c r="L66" t="n">
+        <v>663.1235643564355</v>
+      </c>
+      <c r="M66" t="n">
+        <v>994.6853465346533</v>
+      </c>
+      <c r="N66" t="n">
+        <v>663.1235643564355</v>
+      </c>
+      <c r="O66" t="n">
+        <v>552.6029702970295</v>
+      </c>
+      <c r="P66" t="n">
+        <v>442.0823762376237</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>331.5617821782178</v>
+      </c>
+      <c r="R66" t="n">
+        <v>331.5617821782178</v>
+      </c>
+      <c r="S66" t="n">
+        <v>552.6029702970295</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2502</v>
+        <v>6802</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>36658.24999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>3266.576732673267</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3266.576732673267</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3266.576732673267</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2903.623762376237</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2903.623762376237</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2540.670792079208</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2540.670792079208</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2540.670792079208</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2177.717821782177</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3266.576732673267</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1814.764851485148</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1451.811881188119</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1088.858910891089</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1088.858910891089</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1088.858910891089</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1451.811881188119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6705</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
+        <v>3307</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0</v>
       </c>
@@ -4293,1359 +4077,1223 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6803</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
+        <v>2502</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1304</v>
-      </c>
-      <c r="B70" t="n">
-        <v>917.5700000000001</v>
-      </c>
+        <v>6705</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>4129.069999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>371.6162999999999</v>
-      </c>
-      <c r="E70" t="n">
-        <v>330.3256</v>
-      </c>
-      <c r="F70" t="n">
-        <v>330.3256</v>
-      </c>
-      <c r="G70" t="n">
-        <v>330.3256</v>
-      </c>
-      <c r="H70" t="n">
-        <v>289.0348999999999</v>
-      </c>
-      <c r="I70" t="n">
-        <v>289.0348999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>247.7441999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>247.7441999999999</v>
-      </c>
-      <c r="L70" t="n">
-        <v>247.7441999999999</v>
-      </c>
-      <c r="M70" t="n">
-        <v>371.6162999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>206.4534999999999</v>
-      </c>
-      <c r="O70" t="n">
-        <v>206.4534999999999</v>
-      </c>
-      <c r="P70" t="n">
-        <v>165.1628</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>123.8721</v>
-      </c>
-      <c r="R70" t="n">
-        <v>123.8721</v>
-      </c>
-      <c r="S70" t="n">
-        <v>247.7441999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B71" t="n">
-        <v>854.92</v>
-      </c>
+        <v>6803</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>3847.15</v>
-      </c>
-      <c r="D71" t="n">
-        <v>346.2434999999999</v>
-      </c>
-      <c r="E71" t="n">
-        <v>307.7719999999999</v>
-      </c>
-      <c r="F71" t="n">
-        <v>307.7719999999999</v>
-      </c>
-      <c r="G71" t="n">
-        <v>307.7719999999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>269.3005</v>
-      </c>
-      <c r="I71" t="n">
-        <v>269.3005</v>
-      </c>
-      <c r="J71" t="n">
-        <v>230.829</v>
-      </c>
-      <c r="K71" t="n">
-        <v>230.829</v>
-      </c>
-      <c r="L71" t="n">
-        <v>230.829</v>
-      </c>
-      <c r="M71" t="n">
-        <v>346.2434999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>192.3575</v>
-      </c>
-      <c r="O71" t="n">
-        <v>192.3575</v>
-      </c>
-      <c r="P71" t="n">
-        <v>153.886</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>115.4145</v>
-      </c>
-      <c r="R71" t="n">
-        <v>115.4145</v>
-      </c>
-      <c r="S71" t="n">
-        <v>230.829</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2402</v>
+        <v>1304</v>
       </c>
       <c r="B72" t="n">
-        <v>5942.61</v>
+        <v>917.5700000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>27629.96999999999</v>
+        <v>4129.069999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>2511.815454545454</v>
+        <v>371.6162999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>2511.815454545454</v>
+        <v>330.3256</v>
       </c>
       <c r="F72" t="n">
-        <v>2511.815454545454</v>
+        <v>330.3256</v>
       </c>
       <c r="G72" t="n">
-        <v>2511.815454545454</v>
+        <v>330.3256</v>
       </c>
       <c r="H72" t="n">
-        <v>2232.724848484848</v>
+        <v>289.0348999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>1953.634242424242</v>
+        <v>289.0348999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>1674.543636363636</v>
+        <v>247.7441999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>1674.543636363636</v>
+        <v>247.7441999999999</v>
       </c>
       <c r="L72" t="n">
-        <v>1674.543636363636</v>
+        <v>247.7441999999999</v>
       </c>
       <c r="M72" t="n">
-        <v>2511.815454545454</v>
+        <v>371.6162999999999</v>
       </c>
       <c r="N72" t="n">
-        <v>1395.45303030303</v>
+        <v>206.4534999999999</v>
       </c>
       <c r="O72" t="n">
-        <v>1116.362424242424</v>
+        <v>206.4534999999999</v>
       </c>
       <c r="P72" t="n">
-        <v>837.2718181818179</v>
+        <v>165.1628</v>
       </c>
       <c r="Q72" t="n">
-        <v>837.2718181818179</v>
+        <v>123.8721</v>
       </c>
       <c r="R72" t="n">
-        <v>558.181212121212</v>
+        <v>123.8721</v>
       </c>
       <c r="S72" t="n">
-        <v>1116.362424242424</v>
+        <v>247.7441999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6611</v>
+        <v>1306</v>
       </c>
       <c r="B73" t="n">
-        <v>721.22</v>
+        <v>854.92</v>
       </c>
       <c r="C73" t="n">
-        <v>3245.51</v>
+        <v>3847.15</v>
       </c>
       <c r="D73" t="n">
-        <v>289.2038613861386</v>
+        <v>346.2434999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>289.2038613861386</v>
+        <v>307.7719999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>257.070099009901</v>
+        <v>307.7719999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>257.070099009901</v>
+        <v>307.7719999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>257.070099009901</v>
+        <v>269.3005</v>
       </c>
       <c r="I73" t="n">
-        <v>224.9363366336634</v>
+        <v>269.3005</v>
       </c>
       <c r="J73" t="n">
-        <v>192.8025742574257</v>
+        <v>230.829</v>
       </c>
       <c r="K73" t="n">
-        <v>192.8025742574257</v>
+        <v>230.829</v>
       </c>
       <c r="L73" t="n">
-        <v>192.8025742574257</v>
+        <v>230.829</v>
       </c>
       <c r="M73" t="n">
-        <v>289.2038613861386</v>
+        <v>346.2434999999999</v>
       </c>
       <c r="N73" t="n">
-        <v>160.6688118811881</v>
+        <v>192.3575</v>
       </c>
       <c r="O73" t="n">
-        <v>160.6688118811881</v>
+        <v>192.3575</v>
       </c>
       <c r="P73" t="n">
-        <v>128.5350495049505</v>
+        <v>153.886</v>
       </c>
       <c r="Q73" t="n">
-        <v>96.40128712871285</v>
+        <v>115.4145</v>
       </c>
       <c r="R73" t="n">
-        <v>96.40128712871285</v>
+        <v>115.4145</v>
       </c>
       <c r="S73" t="n">
-        <v>160.6688118811881</v>
+        <v>230.829</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6607</v>
+        <v>2402</v>
       </c>
       <c r="B74" t="n">
-        <v>1161.28</v>
+        <v>5942.61</v>
       </c>
       <c r="C74" t="n">
-        <v>4889.359999999999</v>
+        <v>27629.96999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>435.6855445544553</v>
+        <v>2511.815454545454</v>
       </c>
       <c r="E74" t="n">
-        <v>435.6855445544553</v>
+        <v>2511.815454545454</v>
       </c>
       <c r="F74" t="n">
-        <v>387.2760396039603</v>
+        <v>2511.815454545454</v>
       </c>
       <c r="G74" t="n">
-        <v>387.2760396039603</v>
+        <v>2511.815454545454</v>
       </c>
       <c r="H74" t="n">
-        <v>387.2760396039603</v>
+        <v>2232.724848484848</v>
       </c>
       <c r="I74" t="n">
-        <v>338.8665346534653</v>
+        <v>1953.634242424242</v>
       </c>
       <c r="J74" t="n">
-        <v>290.4570297029702</v>
+        <v>1674.543636363636</v>
       </c>
       <c r="K74" t="n">
-        <v>290.4570297029702</v>
+        <v>1674.543636363636</v>
       </c>
       <c r="L74" t="n">
-        <v>290.4570297029702</v>
+        <v>1674.543636363636</v>
       </c>
       <c r="M74" t="n">
-        <v>435.6855445544553</v>
+        <v>2511.815454545454</v>
       </c>
       <c r="N74" t="n">
-        <v>242.0475247524752</v>
+        <v>1395.45303030303</v>
       </c>
       <c r="O74" t="n">
-        <v>242.0475247524752</v>
+        <v>1116.362424242424</v>
       </c>
       <c r="P74" t="n">
-        <v>193.6380198019802</v>
+        <v>837.2718181818179</v>
       </c>
       <c r="Q74" t="n">
-        <v>145.2285148514851</v>
+        <v>837.2718181818179</v>
       </c>
       <c r="R74" t="n">
-        <v>145.2285148514851</v>
+        <v>558.181212121212</v>
       </c>
       <c r="S74" t="n">
-        <v>242.0475247524752</v>
+        <v>1116.362424242424</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3606</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1235.49</v>
-      </c>
+        <v>6611</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>5148.639999999999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>463.3775999999999</v>
-      </c>
-      <c r="E75" t="n">
-        <v>411.8912</v>
-      </c>
-      <c r="F75" t="n">
-        <v>411.8912</v>
-      </c>
-      <c r="G75" t="n">
-        <v>411.8912</v>
-      </c>
-      <c r="H75" t="n">
-        <v>360.4048</v>
-      </c>
-      <c r="I75" t="n">
-        <v>360.4048</v>
-      </c>
-      <c r="J75" t="n">
-        <v>308.9184</v>
-      </c>
-      <c r="K75" t="n">
-        <v>308.9184</v>
-      </c>
-      <c r="L75" t="n">
-        <v>308.9184</v>
-      </c>
-      <c r="M75" t="n">
-        <v>463.3775999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>308.9184</v>
-      </c>
-      <c r="O75" t="n">
-        <v>257.432</v>
-      </c>
-      <c r="P75" t="n">
-        <v>154.4592</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>154.4592</v>
-      </c>
-      <c r="R75" t="n">
-        <v>154.4592</v>
-      </c>
-      <c r="S75" t="n">
-        <v>308.9184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3604</v>
+        <v>6607</v>
       </c>
       <c r="B76" t="n">
-        <v>1272.49</v>
+        <v>1161.28</v>
       </c>
       <c r="C76" t="n">
-        <v>5287.729999999998</v>
+        <v>4889.359999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>475.8956999999999</v>
+        <v>435.6855445544553</v>
       </c>
       <c r="E76" t="n">
-        <v>423.0183999999999</v>
+        <v>435.6855445544553</v>
       </c>
       <c r="F76" t="n">
-        <v>423.0183999999999</v>
+        <v>387.2760396039603</v>
       </c>
       <c r="G76" t="n">
-        <v>423.0183999999999</v>
+        <v>387.2760396039603</v>
       </c>
       <c r="H76" t="n">
-        <v>370.1410999999999</v>
+        <v>387.2760396039603</v>
       </c>
       <c r="I76" t="n">
-        <v>370.1410999999999</v>
+        <v>338.8665346534653</v>
       </c>
       <c r="J76" t="n">
-        <v>317.2637999999999</v>
+        <v>290.4570297029702</v>
       </c>
       <c r="K76" t="n">
-        <v>317.2637999999999</v>
+        <v>290.4570297029702</v>
       </c>
       <c r="L76" t="n">
-        <v>317.2637999999999</v>
+        <v>290.4570297029702</v>
       </c>
       <c r="M76" t="n">
-        <v>475.8956999999999</v>
+        <v>435.6855445544553</v>
       </c>
       <c r="N76" t="n">
-        <v>317.2637999999999</v>
+        <v>242.0475247524752</v>
       </c>
       <c r="O76" t="n">
-        <v>264.3864999999999</v>
+        <v>242.0475247524752</v>
       </c>
       <c r="P76" t="n">
-        <v>158.6318999999999</v>
+        <v>193.6380198019802</v>
       </c>
       <c r="Q76" t="n">
-        <v>158.6318999999999</v>
+        <v>145.2285148514851</v>
       </c>
       <c r="R76" t="n">
-        <v>158.6318999999999</v>
+        <v>145.2285148514851</v>
       </c>
       <c r="S76" t="n">
-        <v>317.2637999999999</v>
+        <v>242.0475247524752</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="B77" t="n">
-        <v>727.04</v>
+        <v>1235.49</v>
       </c>
       <c r="C77" t="n">
-        <v>3085.969999999999</v>
+        <v>5148.639999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>277.7372999999999</v>
+        <v>463.3775999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>246.8775999999999</v>
+        <v>411.8912</v>
       </c>
       <c r="F77" t="n">
-        <v>246.8775999999999</v>
+        <v>411.8912</v>
       </c>
       <c r="G77" t="n">
-        <v>246.8775999999999</v>
+        <v>411.8912</v>
       </c>
       <c r="H77" t="n">
-        <v>216.0179</v>
+        <v>360.4048</v>
       </c>
       <c r="I77" t="n">
-        <v>216.0179</v>
+        <v>360.4048</v>
       </c>
       <c r="J77" t="n">
-        <v>185.1581999999999</v>
+        <v>308.9184</v>
       </c>
       <c r="K77" t="n">
-        <v>185.1581999999999</v>
+        <v>308.9184</v>
       </c>
       <c r="L77" t="n">
-        <v>185.1581999999999</v>
+        <v>308.9184</v>
       </c>
       <c r="M77" t="n">
-        <v>277.7372999999999</v>
+        <v>463.3775999999999</v>
       </c>
       <c r="N77" t="n">
-        <v>185.1581999999999</v>
+        <v>308.9184</v>
       </c>
       <c r="O77" t="n">
-        <v>154.2985</v>
+        <v>257.432</v>
       </c>
       <c r="P77" t="n">
-        <v>92.57909999999997</v>
+        <v>154.4592</v>
       </c>
       <c r="Q77" t="n">
-        <v>92.57909999999997</v>
+        <v>154.4592</v>
       </c>
       <c r="R77" t="n">
-        <v>92.57909999999997</v>
+        <v>154.4592</v>
       </c>
       <c r="S77" t="n">
-        <v>185.1581999999999</v>
+        <v>308.9184</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2403</v>
+        <v>3604</v>
       </c>
       <c r="B78" t="n">
-        <v>2043.25</v>
+        <v>1272.49</v>
       </c>
       <c r="C78" t="n">
-        <v>10411.68</v>
+        <v>5287.729999999998</v>
       </c>
       <c r="D78" t="n">
-        <v>946.5163636363633</v>
+        <v>475.8956999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>946.5163636363633</v>
+        <v>423.0183999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>946.5163636363633</v>
+        <v>423.0183999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>946.5163636363633</v>
+        <v>423.0183999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>841.3478787878786</v>
+        <v>370.1410999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>736.1793939393938</v>
+        <v>370.1410999999999</v>
       </c>
       <c r="J78" t="n">
-        <v>631.0109090909089</v>
+        <v>317.2637999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>631.0109090909089</v>
+        <v>317.2637999999999</v>
       </c>
       <c r="L78" t="n">
-        <v>631.0109090909089</v>
+        <v>317.2637999999999</v>
       </c>
       <c r="M78" t="n">
-        <v>946.5163636363633</v>
+        <v>475.8956999999999</v>
       </c>
       <c r="N78" t="n">
-        <v>525.8424242424242</v>
+        <v>317.2637999999999</v>
       </c>
       <c r="O78" t="n">
-        <v>420.6739393939393</v>
+        <v>264.3864999999999</v>
       </c>
       <c r="P78" t="n">
-        <v>315.5054545454544</v>
+        <v>158.6318999999999</v>
       </c>
       <c r="Q78" t="n">
-        <v>315.5054545454544</v>
+        <v>158.6318999999999</v>
       </c>
       <c r="R78" t="n">
-        <v>210.3369696969696</v>
+        <v>158.6318999999999</v>
       </c>
       <c r="S78" t="n">
-        <v>420.6739393939393</v>
+        <v>317.2637999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="B79" t="n">
-        <v>206.64</v>
+        <v>727.04</v>
       </c>
       <c r="C79" t="n">
-        <v>824.8399999999999</v>
+        <v>3085.969999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>74.23559999999999</v>
+        <v>277.7372999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>65.98719999999999</v>
+        <v>246.8775999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>65.98719999999999</v>
+        <v>246.8775999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>65.98719999999999</v>
+        <v>246.8775999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>57.7388</v>
+        <v>216.0179</v>
       </c>
       <c r="I79" t="n">
-        <v>57.7388</v>
+        <v>216.0179</v>
       </c>
       <c r="J79" t="n">
-        <v>49.49039999999999</v>
+        <v>185.1581999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>49.49039999999999</v>
+        <v>185.1581999999999</v>
       </c>
       <c r="L79" t="n">
-        <v>49.49039999999999</v>
+        <v>185.1581999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>74.23559999999999</v>
+        <v>277.7372999999999</v>
       </c>
       <c r="N79" t="n">
-        <v>49.49039999999999</v>
+        <v>185.1581999999999</v>
       </c>
       <c r="O79" t="n">
-        <v>41.24199999999999</v>
+        <v>154.2985</v>
       </c>
       <c r="P79" t="n">
-        <v>24.74519999999999</v>
+        <v>92.57909999999997</v>
       </c>
       <c r="Q79" t="n">
-        <v>24.74519999999999</v>
+        <v>92.57909999999997</v>
       </c>
       <c r="R79" t="n">
-        <v>24.74519999999999</v>
+        <v>92.57909999999997</v>
       </c>
       <c r="S79" t="n">
-        <v>49.49039999999999</v>
+        <v>185.1581999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3602</v>
+        <v>2403</v>
       </c>
       <c r="B80" t="n">
-        <v>1337.69</v>
+        <v>2043.25</v>
       </c>
       <c r="C80" t="n">
-        <v>5432.069999999998</v>
+        <v>10411.68</v>
       </c>
       <c r="D80" t="n">
-        <v>488.8862999999999</v>
+        <v>946.5163636363633</v>
       </c>
       <c r="E80" t="n">
-        <v>434.5655999999999</v>
+        <v>946.5163636363633</v>
       </c>
       <c r="F80" t="n">
-        <v>434.5655999999999</v>
+        <v>946.5163636363633</v>
       </c>
       <c r="G80" t="n">
-        <v>434.5655999999999</v>
+        <v>946.5163636363633</v>
       </c>
       <c r="H80" t="n">
-        <v>380.2448999999999</v>
+        <v>841.3478787878786</v>
       </c>
       <c r="I80" t="n">
-        <v>380.2448999999999</v>
+        <v>736.1793939393938</v>
       </c>
       <c r="J80" t="n">
-        <v>325.9241999999999</v>
+        <v>631.0109090909089</v>
       </c>
       <c r="K80" t="n">
-        <v>325.9241999999999</v>
+        <v>631.0109090909089</v>
       </c>
       <c r="L80" t="n">
-        <v>325.9241999999999</v>
+        <v>631.0109090909089</v>
       </c>
       <c r="M80" t="n">
-        <v>488.8862999999999</v>
+        <v>946.5163636363633</v>
       </c>
       <c r="N80" t="n">
-        <v>325.9241999999999</v>
+        <v>525.8424242424242</v>
       </c>
       <c r="O80" t="n">
-        <v>271.6034999999999</v>
+        <v>420.6739393939393</v>
       </c>
       <c r="P80" t="n">
-        <v>162.9620999999999</v>
+        <v>315.5054545454544</v>
       </c>
       <c r="Q80" t="n">
-        <v>162.9620999999999</v>
+        <v>315.5054545454544</v>
       </c>
       <c r="R80" t="n">
-        <v>162.9620999999999</v>
+        <v>210.3369696969696</v>
       </c>
       <c r="S80" t="n">
-        <v>325.9241999999999</v>
+        <v>420.6739393939393</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3610</v>
+        <v>3601</v>
       </c>
       <c r="B81" t="n">
-        <v>1110.32</v>
+        <v>206.64</v>
       </c>
       <c r="C81" t="n">
-        <v>4678.069999999999</v>
+        <v>824.8399999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>421.0262999999999</v>
+        <v>74.23559999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>374.2455999999999</v>
+        <v>65.98719999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>374.2455999999999</v>
+        <v>65.98719999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>374.2455999999999</v>
+        <v>65.98719999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>327.4648999999999</v>
+        <v>57.7388</v>
       </c>
       <c r="I81" t="n">
-        <v>327.4648999999999</v>
+        <v>57.7388</v>
       </c>
       <c r="J81" t="n">
-        <v>280.6841999999999</v>
+        <v>49.49039999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>280.6841999999999</v>
+        <v>49.49039999999999</v>
       </c>
       <c r="L81" t="n">
-        <v>280.6841999999999</v>
+        <v>49.49039999999999</v>
       </c>
       <c r="M81" t="n">
-        <v>421.0262999999999</v>
+        <v>74.23559999999999</v>
       </c>
       <c r="N81" t="n">
-        <v>280.6841999999999</v>
+        <v>49.49039999999999</v>
       </c>
       <c r="O81" t="n">
-        <v>233.9034999999999</v>
+        <v>41.24199999999999</v>
       </c>
       <c r="P81" t="n">
-        <v>140.3421</v>
+        <v>24.74519999999999</v>
       </c>
       <c r="Q81" t="n">
-        <v>140.3421</v>
+        <v>24.74519999999999</v>
       </c>
       <c r="R81" t="n">
-        <v>140.3421</v>
+        <v>24.74519999999999</v>
       </c>
       <c r="S81" t="n">
-        <v>280.6841999999999</v>
+        <v>49.49039999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B82" t="n">
-        <v>1093.96</v>
+        <v>1337.69</v>
       </c>
       <c r="C82" t="n">
-        <v>4616.569999999999</v>
+        <v>5432.069999999998</v>
       </c>
       <c r="D82" t="n">
-        <v>415.4912999999999</v>
+        <v>488.8862999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>369.3255999999999</v>
+        <v>434.5655999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>369.3255999999999</v>
+        <v>434.5655999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>369.3255999999999</v>
+        <v>434.5655999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>323.1598999999999</v>
+        <v>380.2448999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>323.1598999999999</v>
+        <v>380.2448999999999</v>
       </c>
       <c r="J82" t="n">
-        <v>276.9941999999999</v>
+        <v>325.9241999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>276.9941999999999</v>
+        <v>325.9241999999999</v>
       </c>
       <c r="L82" t="n">
-        <v>276.9941999999999</v>
+        <v>325.9241999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>415.4912999999999</v>
+        <v>488.8862999999999</v>
       </c>
       <c r="N82" t="n">
-        <v>276.9941999999999</v>
+        <v>325.9241999999999</v>
       </c>
       <c r="O82" t="n">
-        <v>230.8284999999999</v>
+        <v>271.6034999999999</v>
       </c>
       <c r="P82" t="n">
-        <v>138.4971</v>
+        <v>162.9620999999999</v>
       </c>
       <c r="Q82" t="n">
-        <v>138.4971</v>
+        <v>162.9620999999999</v>
       </c>
       <c r="R82" t="n">
-        <v>138.4971</v>
+        <v>162.9620999999999</v>
       </c>
       <c r="S82" t="n">
-        <v>276.9941999999999</v>
+        <v>325.9241999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2501</v>
+        <v>3610</v>
       </c>
       <c r="B83" t="n">
-        <v>3843.46</v>
+        <v>1110.32</v>
       </c>
       <c r="C83" t="n">
-        <v>17115.57</v>
+        <v>4678.069999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1540.4013</v>
+        <v>421.0262999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>1540.4013</v>
+        <v>374.2455999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>1540.4013</v>
+        <v>374.2455999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>1540.4013</v>
+        <v>374.2455999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1369.2456</v>
+        <v>327.4648999999999</v>
       </c>
       <c r="I83" t="n">
-        <v>1198.0899</v>
+        <v>327.4648999999999</v>
       </c>
       <c r="J83" t="n">
-        <v>1198.0899</v>
+        <v>280.6841999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>1026.9342</v>
+        <v>280.6841999999999</v>
       </c>
       <c r="L83" t="n">
-        <v>1026.9342</v>
+        <v>280.6841999999999</v>
       </c>
       <c r="M83" t="n">
-        <v>1540.4013</v>
+        <v>421.0262999999999</v>
       </c>
       <c r="N83" t="n">
-        <v>855.7784999999998</v>
+        <v>280.6841999999999</v>
       </c>
       <c r="O83" t="n">
-        <v>684.6227999999999</v>
+        <v>233.9034999999999</v>
       </c>
       <c r="P83" t="n">
-        <v>513.4670999999998</v>
+        <v>140.3421</v>
       </c>
       <c r="Q83" t="n">
-        <v>513.4670999999998</v>
+        <v>140.3421</v>
       </c>
       <c r="R83" t="n">
-        <v>342.3113999999999</v>
+        <v>140.3421</v>
       </c>
       <c r="S83" t="n">
-        <v>684.6227999999999</v>
+        <v>280.6841999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2504</v>
+        <v>3603</v>
       </c>
       <c r="B84" t="n">
-        <v>2138.3</v>
+        <v>1093.96</v>
       </c>
       <c r="C84" t="n">
-        <v>9074.829999999998</v>
+        <v>4616.569999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>816.7346999999999</v>
+        <v>415.4912999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>816.7346999999999</v>
+        <v>369.3255999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>725.9863999999999</v>
+        <v>369.3255999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>725.9863999999999</v>
+        <v>369.3255999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>725.9863999999999</v>
+        <v>323.1598999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>635.2380999999999</v>
+        <v>323.1598999999999</v>
       </c>
       <c r="J84" t="n">
-        <v>544.4897999999998</v>
+        <v>276.9941999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>544.4897999999998</v>
+        <v>276.9941999999999</v>
       </c>
       <c r="L84" t="n">
-        <v>544.4897999999998</v>
+        <v>276.9941999999999</v>
       </c>
       <c r="M84" t="n">
-        <v>816.7346999999999</v>
+        <v>415.4912999999999</v>
       </c>
       <c r="N84" t="n">
-        <v>544.4897999999998</v>
+        <v>276.9941999999999</v>
       </c>
       <c r="O84" t="n">
-        <v>362.9931999999999</v>
+        <v>230.8284999999999</v>
       </c>
       <c r="P84" t="n">
-        <v>272.2448999999999</v>
+        <v>138.4971</v>
       </c>
       <c r="Q84" t="n">
-        <v>272.2448999999999</v>
+        <v>138.4971</v>
       </c>
       <c r="R84" t="n">
-        <v>272.2448999999999</v>
+        <v>138.4971</v>
       </c>
       <c r="S84" t="n">
-        <v>453.7414999999999</v>
+        <v>276.9941999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>304</v>
+        <v>2501</v>
       </c>
       <c r="B85" t="n">
-        <v>1127.06</v>
+        <v>3843.46</v>
       </c>
       <c r="C85" t="n">
-        <v>5102.749999999998</v>
+        <v>17115.57</v>
       </c>
       <c r="D85" t="n">
-        <v>404.1782178217821</v>
+        <v>1540.4013</v>
       </c>
       <c r="E85" t="n">
-        <v>404.1782178217821</v>
+        <v>1540.4013</v>
       </c>
       <c r="F85" t="n">
-        <v>353.6559405940594</v>
+        <v>1540.4013</v>
       </c>
       <c r="G85" t="n">
-        <v>353.6559405940594</v>
+        <v>1540.4013</v>
       </c>
       <c r="H85" t="n">
-        <v>353.6559405940594</v>
+        <v>1369.2456</v>
       </c>
       <c r="I85" t="n">
-        <v>303.1336633663365</v>
+        <v>1198.0899</v>
       </c>
       <c r="J85" t="n">
-        <v>303.1336633663365</v>
+        <v>1198.0899</v>
       </c>
       <c r="K85" t="n">
-        <v>252.6113861386138</v>
+        <v>1026.9342</v>
       </c>
       <c r="L85" t="n">
-        <v>303.1336633663365</v>
+        <v>1026.9342</v>
       </c>
       <c r="M85" t="n">
-        <v>404.1782178217821</v>
+        <v>1540.4013</v>
       </c>
       <c r="N85" t="n">
-        <v>303.1336633663365</v>
+        <v>855.7784999999998</v>
       </c>
       <c r="O85" t="n">
-        <v>252.6113861386138</v>
+        <v>684.6227999999999</v>
       </c>
       <c r="P85" t="n">
-        <v>252.6113861386138</v>
+        <v>513.4670999999998</v>
       </c>
       <c r="Q85" t="n">
-        <v>252.6113861386138</v>
+        <v>513.4670999999998</v>
       </c>
       <c r="R85" t="n">
-        <v>202.089108910891</v>
+        <v>342.3113999999999</v>
       </c>
       <c r="S85" t="n">
-        <v>404.1782178217821</v>
+        <v>684.6227999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>2504</v>
       </c>
       <c r="B86" t="n">
-        <v>603.61</v>
+        <v>2138.3</v>
       </c>
       <c r="C86" t="n">
-        <v>2737.25</v>
+        <v>9074.829999999998</v>
       </c>
       <c r="D86" t="n">
-        <v>216.8118811881188</v>
+        <v>816.7346999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>216.8118811881188</v>
+        <v>816.7346999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>189.7103960396039</v>
+        <v>725.9863999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>189.7103960396039</v>
+        <v>725.9863999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>189.7103960396039</v>
+        <v>725.9863999999999</v>
       </c>
       <c r="I86" t="n">
-        <v>162.6089108910891</v>
+        <v>635.2380999999999</v>
       </c>
       <c r="J86" t="n">
-        <v>162.6089108910891</v>
+        <v>544.4897999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>162.6089108910891</v>
+        <v>544.4897999999998</v>
       </c>
       <c r="L86" t="n">
-        <v>162.6089108910891</v>
+        <v>544.4897999999998</v>
       </c>
       <c r="M86" t="n">
-        <v>216.8118811881188</v>
+        <v>816.7346999999999</v>
       </c>
       <c r="N86" t="n">
-        <v>162.6089108910891</v>
+        <v>544.4897999999998</v>
       </c>
       <c r="O86" t="n">
-        <v>135.5074257425742</v>
+        <v>362.9931999999999</v>
       </c>
       <c r="P86" t="n">
-        <v>135.5074257425742</v>
+        <v>272.2448999999999</v>
       </c>
       <c r="Q86" t="n">
-        <v>108.4059405940594</v>
+        <v>272.2448999999999</v>
       </c>
       <c r="R86" t="n">
-        <v>108.4059405940594</v>
+        <v>272.2448999999999</v>
       </c>
       <c r="S86" t="n">
-        <v>216.8118811881188</v>
+        <v>453.7414999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B87" t="n">
-        <v>5266.97</v>
+        <v>1127.06</v>
       </c>
       <c r="C87" t="n">
-        <v>23767.35999999999</v>
+        <v>5071.749999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2160.66909090909</v>
+        <v>401.7227722772276</v>
       </c>
       <c r="E87" t="n">
-        <v>1920.594747474747</v>
+        <v>401.7227722772276</v>
       </c>
       <c r="F87" t="n">
-        <v>1920.594747474747</v>
+        <v>351.5074257425742</v>
       </c>
       <c r="G87" t="n">
-        <v>1920.594747474747</v>
+        <v>351.5074257425742</v>
       </c>
       <c r="H87" t="n">
-        <v>1680.520404040404</v>
+        <v>351.5074257425742</v>
       </c>
       <c r="I87" t="n">
-        <v>1680.520404040404</v>
+        <v>301.2920792079207</v>
       </c>
       <c r="J87" t="n">
-        <v>1440.44606060606</v>
+        <v>301.2920792079207</v>
       </c>
       <c r="K87" t="n">
-        <v>1440.44606060606</v>
+        <v>251.0767326732673</v>
       </c>
       <c r="L87" t="n">
-        <v>1440.44606060606</v>
+        <v>301.2920792079207</v>
       </c>
       <c r="M87" t="n">
-        <v>2160.66909090909</v>
+        <v>401.7227722772276</v>
       </c>
       <c r="N87" t="n">
-        <v>1200.371717171717</v>
+        <v>301.2920792079207</v>
       </c>
       <c r="O87" t="n">
-        <v>1200.371717171717</v>
+        <v>251.0767326732673</v>
       </c>
       <c r="P87" t="n">
-        <v>960.2973737373735</v>
+        <v>251.0767326732673</v>
       </c>
       <c r="Q87" t="n">
-        <v>720.2230303030301</v>
+        <v>251.0767326732673</v>
       </c>
       <c r="R87" t="n">
-        <v>720.2230303030301</v>
+        <v>200.8613861386138</v>
       </c>
       <c r="S87" t="n">
-        <v>1200.371717171717</v>
+        <v>401.7227722772276</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7651</v>
+        <v>303</v>
       </c>
       <c r="B88" t="n">
-        <v>3163.52</v>
+        <v>603.61</v>
       </c>
       <c r="C88" t="n">
-        <v>13376.66</v>
+        <v>2716.25</v>
       </c>
       <c r="D88" t="n">
-        <v>1168.834368932038</v>
+        <v>215.1485148514851</v>
       </c>
       <c r="E88" t="n">
-        <v>1038.963883495145</v>
+        <v>215.1485148514851</v>
       </c>
       <c r="F88" t="n">
-        <v>1038.963883495145</v>
+        <v>188.2549504950495</v>
       </c>
       <c r="G88" t="n">
-        <v>1038.963883495145</v>
+        <v>188.2549504950495</v>
       </c>
       <c r="H88" t="n">
-        <v>909.0933980582522</v>
+        <v>188.2549504950495</v>
       </c>
       <c r="I88" t="n">
-        <v>909.0933980582522</v>
+        <v>161.3613861386138</v>
       </c>
       <c r="J88" t="n">
-        <v>779.222912621359</v>
+        <v>161.3613861386138</v>
       </c>
       <c r="K88" t="n">
-        <v>779.222912621359</v>
+        <v>161.3613861386138</v>
       </c>
       <c r="L88" t="n">
-        <v>779.222912621359</v>
+        <v>161.3613861386138</v>
       </c>
       <c r="M88" t="n">
-        <v>1168.834368932038</v>
+        <v>215.1485148514851</v>
       </c>
       <c r="N88" t="n">
-        <v>779.222912621359</v>
+        <v>161.3613861386138</v>
       </c>
       <c r="O88" t="n">
-        <v>649.3524271844659</v>
+        <v>134.4678217821782</v>
       </c>
       <c r="P88" t="n">
-        <v>519.4819417475727</v>
+        <v>134.4678217821782</v>
       </c>
       <c r="Q88" t="n">
-        <v>519.4819417475727</v>
+        <v>107.5742574257426</v>
       </c>
       <c r="R88" t="n">
-        <v>389.6114563106795</v>
+        <v>107.5742574257426</v>
       </c>
       <c r="S88" t="n">
-        <v>909.0933980582522</v>
+        <v>215.1485148514851</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7652</v>
+        <v>301</v>
       </c>
       <c r="B89" t="n">
-        <v>2165.06</v>
+        <v>5266.97</v>
       </c>
       <c r="C89" t="n">
-        <v>9096.159999999996</v>
+        <v>23701.35999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>826.923636363636</v>
+        <v>2154.66909090909</v>
       </c>
       <c r="E89" t="n">
-        <v>826.923636363636</v>
+        <v>1915.261414141414</v>
       </c>
       <c r="F89" t="n">
-        <v>826.923636363636</v>
+        <v>1915.261414141414</v>
       </c>
       <c r="G89" t="n">
-        <v>826.923636363636</v>
+        <v>1915.261414141414</v>
       </c>
       <c r="H89" t="n">
-        <v>735.0432323232321</v>
+        <v>1675.853737373737</v>
       </c>
       <c r="I89" t="n">
-        <v>643.1628282828282</v>
+        <v>1675.853737373737</v>
       </c>
       <c r="J89" t="n">
-        <v>551.2824242424241</v>
+        <v>1436.44606060606</v>
       </c>
       <c r="K89" t="n">
-        <v>551.2824242424241</v>
+        <v>1436.44606060606</v>
       </c>
       <c r="L89" t="n">
-        <v>551.2824242424241</v>
+        <v>1436.44606060606</v>
       </c>
       <c r="M89" t="n">
-        <v>826.923636363636</v>
+        <v>2154.66909090909</v>
       </c>
       <c r="N89" t="n">
-        <v>459.4020202020201</v>
+        <v>1197.038383838383</v>
       </c>
       <c r="O89" t="n">
-        <v>367.5216161616161</v>
+        <v>1197.038383838383</v>
       </c>
       <c r="P89" t="n">
-        <v>275.641212121212</v>
+        <v>957.6307070707069</v>
       </c>
       <c r="Q89" t="n">
-        <v>275.641212121212</v>
+        <v>718.2230303030301</v>
       </c>
       <c r="R89" t="n">
-        <v>183.760808080808</v>
+        <v>718.2230303030301</v>
       </c>
       <c r="S89" t="n">
-        <v>367.5216161616161</v>
+        <v>1197.038383838383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>201</v>
+        <v>7651</v>
       </c>
       <c r="B90" t="n">
-        <v>42.12</v>
+        <v>3163.52</v>
       </c>
       <c r="C90" t="n">
-        <v>189.54</v>
+        <v>13376.66</v>
       </c>
       <c r="D90" t="n">
-        <v>22.7448</v>
+        <v>1168.834368932038</v>
       </c>
       <c r="E90" t="n">
-        <v>22.7448</v>
+        <v>1038.963883495145</v>
       </c>
       <c r="F90" t="n">
-        <v>20.8494</v>
+        <v>1038.963883495145</v>
       </c>
       <c r="G90" t="n">
-        <v>18.954</v>
+        <v>1038.963883495145</v>
       </c>
       <c r="H90" t="n">
-        <v>15.1632</v>
+        <v>909.0933980582522</v>
       </c>
       <c r="I90" t="n">
-        <v>13.2678</v>
+        <v>909.0933980582522</v>
       </c>
       <c r="J90" t="n">
-        <v>9.477</v>
+        <v>779.222912621359</v>
       </c>
       <c r="K90" t="n">
-        <v>9.477</v>
+        <v>779.222912621359</v>
       </c>
       <c r="L90" t="n">
-        <v>9.477</v>
+        <v>779.222912621359</v>
       </c>
       <c r="M90" t="n">
-        <v>22.7448</v>
+        <v>1168.834368932038</v>
       </c>
       <c r="N90" t="n">
-        <v>7.5816</v>
+        <v>779.222912621359</v>
       </c>
       <c r="O90" t="n">
-        <v>5.686199999999999</v>
+        <v>649.3524271844659</v>
       </c>
       <c r="P90" t="n">
-        <v>3.7908</v>
+        <v>519.4819417475727</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.7908</v>
+        <v>519.4819417475727</v>
       </c>
       <c r="R90" t="n">
-        <v>1.8954</v>
+        <v>389.6114563106795</v>
       </c>
       <c r="S90" t="n">
-        <v>1.8954</v>
+        <v>909.0933980582522</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6608</v>
+        <v>7652</v>
       </c>
       <c r="B91" t="n">
-        <v>748.4400000000001</v>
+        <v>2165.06</v>
       </c>
       <c r="C91" t="n">
-        <v>3367.98</v>
+        <v>9096.159999999996</v>
       </c>
       <c r="D91" t="n">
-        <v>404.1576</v>
+        <v>826.923636363636</v>
       </c>
       <c r="E91" t="n">
-        <v>404.1576</v>
+        <v>826.923636363636</v>
       </c>
       <c r="F91" t="n">
-        <v>370.4778</v>
+        <v>826.923636363636</v>
       </c>
       <c r="G91" t="n">
-        <v>336.798</v>
+        <v>826.923636363636</v>
       </c>
       <c r="H91" t="n">
-        <v>269.4384</v>
+        <v>735.0432323232321</v>
       </c>
       <c r="I91" t="n">
-        <v>235.7586</v>
+        <v>643.1628282828282</v>
       </c>
       <c r="J91" t="n">
-        <v>168.399</v>
+        <v>551.2824242424241</v>
       </c>
       <c r="K91" t="n">
-        <v>168.399</v>
+        <v>551.2824242424241</v>
       </c>
       <c r="L91" t="n">
-        <v>168.399</v>
+        <v>551.2824242424241</v>
       </c>
       <c r="M91" t="n">
-        <v>404.1576</v>
+        <v>826.923636363636</v>
       </c>
       <c r="N91" t="n">
-        <v>134.7192</v>
+        <v>459.4020202020201</v>
       </c>
       <c r="O91" t="n">
-        <v>101.0394</v>
+        <v>367.5216161616161</v>
       </c>
       <c r="P91" t="n">
-        <v>67.3596</v>
+        <v>275.641212121212</v>
       </c>
       <c r="Q91" t="n">
-        <v>67.3596</v>
+        <v>275.641212121212</v>
       </c>
       <c r="R91" t="n">
-        <v>33.6798</v>
+        <v>183.760808080808</v>
       </c>
       <c r="S91" t="n">
-        <v>33.6798</v>
+        <v>367.5216161616161</v>
       </c>
     </row>
     <row r="92">
@@ -5713,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1519.077782730649</v>
+        <v>1518.880760635146</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5738,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4597.557311579759</v>
+        <v>4596.95529565095</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5763,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>4064.968132585721</v>
+        <v>4064.435855247981</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5788,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>18737.30287822559</v>
+        <v>18734.84936780013</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5813,7 +5461,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>23928.58944976409</v>
+        <v>23925.45617897997</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -5838,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>10626.79189852273</v>
+        <v>10625.40039917612</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5863,7 +5511,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>40225.01260651437</v>
+        <v>40219.86924340318</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
@@ -5888,7 +5536,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>2961.488964060927</v>
+        <v>2961.104863412401</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -5913,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>18618.57019375887</v>
+        <v>18616.15539330787</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5938,7 +5586,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>12011.57351821013</v>
+        <v>12010.01563525525</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -5963,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>50244.40593581172</v>
+        <v>50237.98144499646</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5988,7 +5636,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>27382.12862246404</v>
+        <v>27378.62741211911</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -6013,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>37143.634134429</v>
+        <v>37138.88477115368</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -6038,7 +5686,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>11968.11335700033</v>
+        <v>11966.53104400984</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -6063,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1757.788803095071</v>
+        <v>1757.556404556162</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -6088,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>8612.168660816782</v>
+        <v>8611.030039720728</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -6113,7 +5761,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2995.813652762889</v>
+        <v>2995.41757405621</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -6138,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2717.102006141468</v>
+        <v>2716.742776104742</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -6163,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>15525.28284686401</v>
+        <v>15523.23023790245</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -6188,7 +5836,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>8393.745203348546</v>
+        <v>8392.635460177016</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -6213,7 +5861,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>11995.81496911916</v>
+        <v>11994.22899367835</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -6238,7 +5886,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>8727.126046917472</v>
+        <v>8725.972227221611</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
@@ -6263,7 +5911,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>25952.738055761</v>
+        <v>25949.30682534571</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -6288,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3661.384907178046</v>
+        <v>3660.900832810687</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -6313,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>9092.254971637838</v>
+        <v>9091.052877980699</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6338,7 +5986,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>16075.27560488238</v>
+        <v>16073.1502809774</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -6363,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>8387.699778198437</v>
+        <v>8386.590834296972</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6388,7 +6036,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>980.5108976002412</v>
+        <v>980.3812635397754</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -6413,7 +6061,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>6979.32977615954</v>
+        <v>6978.407033882604</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
@@ -6438,7 +6086,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>6044.592979564334</v>
+        <v>6043.793819520606</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -6463,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>45646.88661762016</v>
+        <v>45640.9662853259</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6488,7 +6136,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>12197.55383313298</v>
+        <v>12195.97182881198</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6513,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>15414.02464311578</v>
+        <v>15412.02546738571</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6538,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>33105.06877791194</v>
+        <v>33100.77510046069</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6563,7 +6211,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>42728.25293641063</v>
+        <v>42722.7111464994</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
@@ -6588,7 +6236,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>1713.474195193383</v>
+        <v>1713.247655521086</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -6613,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>7266.856376029878</v>
+        <v>7265.895619651596</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6638,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>6124.578216999705</v>
+        <v>6123.768482049434</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6663,7 +6311,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>3885.94339998352</v>
+        <v>3885.429636574146</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -6688,7 +6336,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>2518.0380741389</v>
+        <v>2517.705162489722</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
@@ -6713,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4806.070160130997</v>
+        <v>4805.434746091984</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6738,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>759.0944996741217</v>
+        <v>758.9941392370163</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6763,7 +6411,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>5073.279077451857</v>
+        <v>5072.608335527117</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
@@ -6788,7 +6436,7 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>5028.413288654606</v>
+        <v>5027.748478468505</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
@@ -6813,7 +6461,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>2441.131751723834</v>
+        <v>2440.8090079156</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -6838,7 +6486,7 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>3952.902660229113</v>
+        <v>3952.380044087135</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
@@ -6863,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>4334.002792363855</v>
+        <v>4333.429790695624</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6888,7 +6536,7 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>3476.366920070083</v>
+        <v>3475.907307065659</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -6913,7 +6561,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>1799.289350268775</v>
+        <v>1799.051464912275</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -6938,7 +6586,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2851.906479269668</v>
+        <v>2851.52942663529</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6963,7 +6611,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>2434.757712454458</v>
+        <v>2434.435811362601</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
@@ -6988,7 +6636,7 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>2481.742626575196</v>
+        <v>2481.414513573595</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
@@ -7013,7 +6661,7 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>2258.065824429267</v>
+        <v>2257.767283900716</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
@@ -7038,7 +6686,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>4267.769897204957</v>
+        <v>4267.205652236073</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
@@ -7063,7 +6711,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>4912.402666957166</v>
+        <v>4911.75319461992</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
@@ -7088,7 +6736,7 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>1702.699760090985</v>
+        <v>1702.474644914606</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
@@ -7113,7 +6761,7 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>1624.195800877204</v>
+        <v>1623.981064766495</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
@@ -7138,7 +6786,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>2384.820451463751</v>
+        <v>2384.505152613569</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
@@ -7163,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4840.043129735744</v>
+        <v>4839.403224105657</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -7188,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>8197.107570937744</v>
+        <v>8196.023825370923</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -7213,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>4060.486365555233</v>
+        <v>4059.949525693156</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -7238,7 +6886,7 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>3412.720449817495</v>
+        <v>3412.269251559295</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -7263,7 +6911,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>3045.794593586156</v>
+        <v>3045.39190686286</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
@@ -7288,7 +6936,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>3822.971493162246</v>
+        <v>3822.466055314573</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -7313,7 +6961,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>3248.965150437911</v>
+        <v>3248.535602387202</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -7338,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>5033.008295217222</v>
+        <v>5032.342877521954</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7363,7 +7011,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>4926.41418185386</v>
+        <v>4925.762857044017</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -7388,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5628.413167126348</v>
+        <v>5627.669030518975</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7413,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>6458.812962389219</v>
+        <v>6457.959038019636</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7438,7 +7086,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>5115.3014866638</v>
+        <v>5114.625188925707</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
@@ -7463,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>9569.214824817083</v>
+        <v>9567.949671950097</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7488,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6701.215615033958</v>
+        <v>6700.329642432981</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7513,7 +7161,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>8381.582348977347</v>
+        <v>8380.474213865657</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7538,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>67355.60463285458</v>
+        <v>67347.11080916658</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7563,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>58383.37609389109</v>
+        <v>58376.01370577871</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7588,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>61761.20533821367</v>
+        <v>61753.34437533776</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7613,7 +7261,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>66038.0335805574</v>
+        <v>66029.62826321406</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7638,7 +7286,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>80286.48189692915</v>
+        <v>80276.26303785456</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7663,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>100353.3897568029</v>
+        <v>100340.616782781</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7688,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>2078.725729926675</v>
+        <v>2078.456122337161</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7713,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>18708.87497964951</v>
+        <v>18706.51571220111</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7738,7 +7386,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>12341.75185768369</v>
+        <v>12340.1955111131</v>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
@@ -7763,7 +7411,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>20528.5707930028</v>
+        <v>20525.98205429527</v>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
@@ -7788,7 +7436,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>20836.43471271685</v>
+        <v>20833.80715108035</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
@@ -7813,7 +7461,7 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>17298.21969584468</v>
+        <v>17296.03831793242</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
@@ -7838,7 +7486,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>11065.3619073515</v>
+        <v>11063.96651889649</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7863,7 +7511,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>28003.53486782709</v>
+        <v>28000.00350486027</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -7888,7 +7536,7 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>7865.195176776305</v>
+        <v>7864.203342741596</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
@@ -7913,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>10790.67397732146</v>
+        <v>10789.31322816424</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7938,7 +7586,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>8321.294938991326</v>
+        <v>8320.245588867414</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
@@ -7963,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>4056.324148079302</v>
+        <v>4055.812628624863</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7988,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>5366.650241905232</v>
+        <v>5365.973484845469</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -8013,7 +7661,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>1991.857649426649</v>
+        <v>1991.60646783934</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
@@ -8038,7 +7686,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>26307.07194965638</v>
+        <v>26303.75451776477</v>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
@@ -8063,7 +7711,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>13659.61276865516</v>
+        <v>13657.89023430727</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -8088,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>17646.11690107044</v>
+        <v>17643.89165186434</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -8113,7 +7761,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>24517.53721718098</v>
+        <v>24514.44545310994</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
@@ -8138,7 +7786,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>31333.94594636103</v>
+        <v>31329.99460461644</v>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
@@ -8163,7 +7811,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>6364.192054123634</v>
+        <v>6363.389502865741</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -8188,7 +7836,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>37954.29181450341</v>
+        <v>37949.50561943274</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -8213,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>34528.77908832332</v>
+        <v>34524.42486474628</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -8238,7 +7886,7 @@
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>26626.04077161501</v>
+        <v>26622.68311641977</v>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
@@ -8263,7 +7911,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>18668.66479976629</v>
+        <v>18666.31060298988</v>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
@@ -8288,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>21270.09570241647</v>
+        <v>21267.41345431392</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -8313,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>84021.7007782635</v>
+        <v>84011.00650073164</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8338,7 +7986,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>84872.42552537254</v>
+        <v>84861.62296764087</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -8363,7 +8011,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>284089.6739072732</v>
+        <v>284054.4988753038</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -8388,7 +8036,7 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>26311.28551370564</v>
+        <v>26307.84024659677</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -8413,7 +8061,7 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>43223.62174662652</v>
+        <v>43218.01570812831</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
@@ -8438,7 +8086,7 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>49631.926668507</v>
+        <v>49625.42773692073</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
@@ -8463,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>14142.75175055643</v>
+        <v>14140.89986242236</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8488,7 +8136,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>11375.26004447906</v>
+        <v>11373.77053879659</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -8513,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>26410.91973958694</v>
+        <v>26407.46142611738</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8538,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>34043.71359369582</v>
+        <v>34039.29817542878</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8563,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>47641.70870900573</v>
+        <v>47635.52965129723</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8588,7 +8236,7 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>44933.06506007074</v>
+        <v>44927.34598197951</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
@@ -8613,7 +8261,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>17797.69534513604</v>
+        <v>17795.37620087991</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -8638,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>9742.993144581671</v>
+        <v>9741.723575339665</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8663,7 +8311,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>11705.73878558034</v>
+        <v>11704.21345905116</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8688,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>7777.200362076177</v>
+        <v>7776.186947181794</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8713,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>4190.323643050355</v>
+        <v>4189.780164398784</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8738,7 +8386,7 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
-        <v>64264.85078821704</v>
+        <v>64256.51573407206</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
@@ -8763,7 +8411,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>12672.22649271224</v>
+        <v>12670.58292406376</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
@@ -8788,7 +8436,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>4728.765063794312</v>
+        <v>4728.151750103202</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8813,7 +8461,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>5531.785581207707</v>
+        <v>5531.061235036696</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8838,7 +8486,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>31140.09036586283</v>
+        <v>31136.05154314566</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8511,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>12333.69724124674</v>
+        <v>12332.0975793312</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8536,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>14140.00039931153</v>
+        <v>14138.16646260285</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -8913,7 +8561,7 @@
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>21779.28478058645</v>
+        <v>21776.51271439723</v>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
@@ -8938,7 +8586,7 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>44658.72759435674</v>
+        <v>44653.04343392331</v>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
@@ -8963,7 +8611,7 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>20502.22660101788</v>
+        <v>20499.59251928591</v>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
@@ -8988,7 +8636,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>32182.32617801505</v>
+        <v>32178.19146235087</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
@@ -9013,7 +8661,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>34205.19743835645</v>
+        <v>34200.80282856776</v>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
@@ -9038,7 +8686,7 @@
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>79966.26503741422</v>
+        <v>79955.89353354105</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
@@ -9063,7 +8711,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>11069.29343123469</v>
+        <v>11067.87805826618</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -9088,7 +8736,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>100613.1105321962</v>
+        <v>100600.2456571425</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -9113,7 +8761,7 @@
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>80314.7003249212</v>
+        <v>80304.38166592619</v>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
@@ -9138,7 +8786,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>301781.222314741</v>
+        <v>301741.3235993706</v>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
@@ -9163,7 +8811,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>19399.84148499982</v>
+        <v>19397.28920882939</v>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
@@ -9188,7 +8836,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>19258.78418382286</v>
+        <v>19256.25046539109</v>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
@@ -9213,7 +8861,7 @@
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>29917.19457223018</v>
+        <v>29913.36921618969</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
@@ -9238,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>14672.91429260512</v>
+        <v>14670.99298363003</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9263,7 +8911,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>14191.92122353394</v>
+        <v>14190.06289702315</v>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
@@ -9288,7 +8936,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>123616.2354099206</v>
+        <v>123599.9722475562</v>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
@@ -9313,7 +8961,7 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
-        <v>39203.98490153418</v>
+        <v>39198.85143134902</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
@@ -9338,7 +8986,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>80304.64913852155</v>
+        <v>80294.13384210163</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
@@ -9363,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>8563.534519941775</v>
+        <v>8562.423842440459</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9388,7 +9036,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>51701.21866393497</v>
+        <v>51694.51309391279</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
@@ -9413,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>53311.54237677642</v>
+        <v>53304.62795019934</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9438,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>36551.90958659889</v>
+        <v>36547.16885909747</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9463,7 +9111,7 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>107071.0363095202</v>
+        <v>107057.1493577254</v>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
@@ -9488,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>50552.6180596727</v>
+        <v>50546.06146141519</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9513,7 +9161,7 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>12019.93070253507</v>
+        <v>12018.371735666</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
@@ -9538,7 +9186,7 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>35368.66789321143</v>
+        <v>35364.08063037165</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
@@ -9563,7 +9211,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>99393.79275022019</v>
+        <v>99380.77787244809</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
@@ -9588,7 +9236,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>94695.50369316216</v>
+        <v>94683.22182926787</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
@@ -9613,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>37866.35993174826</v>
+        <v>37861.44872202112</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>

--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1518.880760635146</v>
+        <v>1518.880760635145</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4596.95529565095</v>
+        <v>4596.955295650952</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>4064.435855247981</v>
+        <v>4064.435855247984</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>18734.84936780013</v>
+        <v>18734.84936780011</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>10625.40039917612</v>
+        <v>10625.40039917611</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>18616.15539330787</v>
+        <v>18616.15539330788</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>50237.98144499646</v>
+        <v>50237.98144499648</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>37138.88477115368</v>
+        <v>37138.88477115364</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>11966.53104400984</v>
+        <v>11966.53104400985</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1757.556404556162</v>
+        <v>1757.556404556163</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>8611.030039720728</v>
+        <v>8611.03003972073</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2716.742776104742</v>
+        <v>2716.742776104744</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>15523.23023790245</v>
+        <v>15523.23023790243</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3660.900832810687</v>
+        <v>3660.900832810684</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>9091.052877980699</v>
+        <v>9091.052877980683</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>8386.590834296972</v>
+        <v>8386.590834296969</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>45640.9662853259</v>
+        <v>45640.96628532591</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>12195.97182881198</v>
+        <v>12195.97182881199</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>15412.02546738571</v>
+        <v>15412.0254673857</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>33100.77510046069</v>
+        <v>33100.77510046071</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>7265.895619651596</v>
+        <v>7265.8956196516</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>6123.768482049434</v>
+        <v>6123.768482049433</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4805.434746091984</v>
+        <v>4805.434746091983</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>758.9941392370163</v>
+        <v>758.994139237016</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>4333.429790695624</v>
+        <v>4333.429790695627</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2851.52942663529</v>
+        <v>2851.529426635289</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4839.403224105657</v>
+        <v>4839.403224105658</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>8196.023825370923</v>
+        <v>8196.023825370921</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>4059.949525693156</v>
+        <v>4059.949525693158</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>3248.535602387202</v>
+        <v>3248.535602387201</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>5032.342877521954</v>
+        <v>5032.342877521955</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5627.669030518975</v>
+        <v>5627.669030518974</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>6457.959038019636</v>
+        <v>6457.959038019638</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>9567.949671950097</v>
+        <v>9567.949671950093</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6700.329642432981</v>
+        <v>6700.329642432979</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>67347.11080916658</v>
+        <v>67347.11080916662</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>58376.01370577871</v>
+        <v>58376.01370577869</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>61753.34437533776</v>
+        <v>61753.34437533773</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>80276.26303785456</v>
+        <v>80276.26303785457</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>100340.616782781</v>
+        <v>100340.6167827809</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>2078.456122337161</v>
+        <v>2078.456122337159</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>18706.51571220111</v>
+        <v>18706.5157122011</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>10789.31322816424</v>
+        <v>10789.31322816425</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>4055.812628624863</v>
+        <v>4055.812628624862</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>5365.973484845469</v>
+        <v>5365.973484845471</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>13657.89023430727</v>
+        <v>13657.89023430726</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>17643.89165186434</v>
+        <v>17643.89165186432</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>6363.389502865741</v>
+        <v>6363.389502865742</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>34524.42486474628</v>
+        <v>34524.42486474626</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>21267.41345431392</v>
+        <v>21267.41345431393</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>84011.00650073164</v>
+        <v>84011.00650073175</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>14140.89986242236</v>
+        <v>14140.89986242235</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>26407.46142611738</v>
+        <v>26407.46142611739</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>34039.29817542878</v>
+        <v>34039.29817542875</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>47635.52965129723</v>
+        <v>47635.52965129724</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>9741.723575339665</v>
+        <v>9741.723575339667</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>7776.186947181794</v>
+        <v>7776.186947181792</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>4189.780164398784</v>
+        <v>4189.780164398786</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>4728.151750103202</v>
+        <v>4728.151750103203</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>5531.061235036696</v>
+        <v>5531.061235036695</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>14670.99298363003</v>
+        <v>14670.99298363001</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>8562.423842440459</v>
+        <v>8562.423842440456</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>51694.51309391279</v>
+        <v>51694.51309391278</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>53304.62795019934</v>
+        <v>53304.62795019933</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>36547.16885909747</v>
+        <v>36547.16885909746</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>50546.06146141519</v>
+        <v>50546.06146141524</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>37861.44872202112</v>
+        <v>37861.44872202111</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
